--- a/data/virtual_customers/customer_015.xlsx
+++ b/data/virtual_customers/customer_015.xlsx
@@ -64,7 +64,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B201"/>
+  <dimension ref="A1:B1001"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -87,7 +87,7 @@
         <v>44888.041666666664</v>
       </c>
       <c r="B2" s="0">
-        <v>3910.2364439678354</v>
+        <v>8528.4917295928608</v>
       </c>
     </row>
     <row r="3">
@@ -95,7 +95,7 @@
         <v>44888.052083333336</v>
       </c>
       <c r="B3" s="0">
-        <v>8192.8763587897502</v>
+        <v>6044.604407674402</v>
       </c>
     </row>
     <row r="4">
@@ -103,7 +103,7 @@
         <v>44888.0625</v>
       </c>
       <c r="B4" s="0">
-        <v>9539.2581380314223</v>
+        <v>8600.2803805153617</v>
       </c>
     </row>
     <row r="5">
@@ -111,7 +111,7 @@
         <v>44888.072916666664</v>
       </c>
       <c r="B5" s="0">
-        <v>7319.16052332441</v>
+        <v>8327.4835070098652</v>
       </c>
     </row>
     <row r="6">
@@ -119,7 +119,7 @@
         <v>44888.083333333336</v>
       </c>
       <c r="B6" s="0">
-        <v>7362.1301545768029</v>
+        <v>7207.5805526188833</v>
       </c>
     </row>
     <row r="7">
@@ -127,7 +127,7 @@
         <v>44888.09375</v>
       </c>
       <c r="B7" s="0">
-        <v>3251.3687647644638</v>
+        <v>7753.1742996298744</v>
       </c>
     </row>
     <row r="8">
@@ -135,7 +135,7 @@
         <v>44888.104166666664</v>
       </c>
       <c r="B8" s="0">
-        <v>6001.4251649176667</v>
+        <v>10036.053398965338</v>
       </c>
     </row>
     <row r="9">
@@ -143,7 +143,7 @@
         <v>44888.114583333336</v>
       </c>
       <c r="B9" s="0">
-        <v>7691.5639941784884</v>
+        <v>5843.5961850914055</v>
       </c>
     </row>
     <row r="10">
@@ -151,7 +151,7 @@
         <v>44888.125</v>
       </c>
       <c r="B10" s="0">
-        <v>8350.4316733818614</v>
+        <v>7868.036141105873</v>
       </c>
     </row>
     <row r="11">
@@ -159,7 +159,7 @@
         <v>44888.135416666664</v>
       </c>
       <c r="B11" s="0">
-        <v>8522.3101983914366</v>
+        <v>7911.1093316593715</v>
       </c>
     </row>
     <row r="12">
@@ -167,7 +167,7 @@
         <v>44888.145833333336</v>
       </c>
       <c r="B12" s="0">
-        <v>10742.407813098449</v>
+        <v>7580.8815374158767</v>
       </c>
     </row>
     <row r="13">
@@ -175,7 +175,7 @@
         <v>44888.15625</v>
       </c>
       <c r="B13" s="0">
-        <v>8035.3210441976398</v>
+        <v>8557.2071899618622</v>
       </c>
     </row>
     <row r="14">
@@ -183,7 +183,7 @@
         <v>44888.166666666664</v>
       </c>
       <c r="B14" s="0">
-        <v>9682.4902422060677</v>
+        <v>5585.1570417704097</v>
       </c>
     </row>
     <row r="15">
@@ -191,7 +191,7 @@
         <v>44888.177083333336</v>
       </c>
       <c r="B15" s="0">
-        <v>3050.8438189199592</v>
+        <v>7221.9382828033831</v>
       </c>
     </row>
     <row r="16">
@@ -199,7 +199,7 @@
         <v>44888.1875</v>
       </c>
       <c r="B16" s="0">
-        <v>9467.6420859441005</v>
+        <v>8686.4267616223588</v>
       </c>
     </row>
     <row r="17">
@@ -207,7 +207,7 @@
         <v>44888.197916666664</v>
       </c>
       <c r="B17" s="0">
-        <v>5056.0932773650029</v>
+        <v>7552.1660770468779</v>
       </c>
     </row>
     <row r="18">
@@ -215,7 +215,7 @@
         <v>44888.208333333336</v>
       </c>
       <c r="B18" s="0">
-        <v>9052.2689838376245</v>
+        <v>7868.036141105873</v>
       </c>
     </row>
     <row r="19">
@@ -223,7 +223,7 @@
         <v>44888.21875</v>
       </c>
       <c r="B19" s="0">
-        <v>7591.3015212562368</v>
+        <v>9404.3132708473477</v>
       </c>
     </row>
     <row r="20">
@@ -231,7 +231,7 @@
         <v>44888.229166666664</v>
       </c>
       <c r="B20" s="0">
-        <v>6431.1214774416048</v>
+        <v>7020.9300602203866</v>
       </c>
     </row>
     <row r="21">
@@ -239,7 +239,7 @@
         <v>44888.239583333336</v>
       </c>
       <c r="B21" s="0">
-        <v>9195.5010880122736</v>
+        <v>3474.5707046489438</v>
       </c>
     </row>
     <row r="22">
@@ -247,7 +247,7 @@
         <v>44888.25</v>
       </c>
       <c r="B22" s="0">
-        <v>2907.6117147453133</v>
+        <v>7896.7516014748726</v>
       </c>
     </row>
     <row r="23">
@@ -255,7 +255,7 @@
         <v>44888.260416666664</v>
       </c>
       <c r="B23" s="0">
-        <v>6087.3644274224544</v>
+        <v>6618.9136150543927</v>
       </c>
     </row>
     <row r="24">
@@ -263,7 +263,7 @@
         <v>44888.270833333336</v>
       </c>
       <c r="B24" s="0">
-        <v>8909.0368796629791</v>
+        <v>9088.4432067883536</v>
       </c>
     </row>
     <row r="25">
@@ -271,7 +271,7 @@
         <v>44888.28125</v>
       </c>
       <c r="B25" s="0">
-        <v>9181.1778775948078</v>
+        <v>4651.9045797779254</v>
       </c>
     </row>
     <row r="26">
@@ -279,7 +279,7 @@
         <v>44888.291666666664</v>
       </c>
       <c r="B26" s="0">
-        <v>7777.503256683277</v>
+        <v>9433.0287312163473</v>
       </c>
     </row>
     <row r="27">
@@ -287,7 +287,7 @@
         <v>44888.302083333336</v>
       </c>
       <c r="B27" s="0">
-        <v>7419.4229962466616</v>
+        <v>5025.2055645749188</v>
       </c>
     </row>
     <row r="28">
@@ -295,7 +295,7 @@
         <v>44888.3125</v>
       </c>
       <c r="B28" s="0">
-        <v>8894.7136692455151</v>
+        <v>6848.6372980063888</v>
       </c>
     </row>
     <row r="29">
@@ -303,7 +303,7 @@
         <v>44888.322916666664</v>
       </c>
       <c r="B29" s="0">
-        <v>7462.3926274990554</v>
+        <v>8729.4999521758582</v>
       </c>
     </row>
     <row r="30">
@@ -311,7 +311,7 @@
         <v>44888.333333333336</v>
       </c>
       <c r="B30" s="0">
-        <v>5843.8698503255555</v>
+        <v>8657.7113012533591</v>
       </c>
     </row>
     <row r="31">
@@ -319,7 +319,7 @@
         <v>44888.34375</v>
       </c>
       <c r="B31" s="0">
-        <v>8450.694146304113</v>
+        <v>6561.4826943163935</v>
       </c>
     </row>
     <row r="32">
@@ -327,7 +327,7 @@
         <v>44888.354166666664</v>
       </c>
       <c r="B32" s="0">
-        <v>7906.4121504404575</v>
+        <v>7006.5723300358868</v>
       </c>
     </row>
     <row r="33">
@@ -335,7 +335,7 @@
         <v>44888.364583333336</v>
       </c>
       <c r="B33" s="0">
-        <v>8708.5119338184759</v>
+        <v>10050.411129149838</v>
       </c>
     </row>
     <row r="34">
@@ -343,7 +343,7 @@
         <v>44888.375</v>
       </c>
       <c r="B34" s="0">
-        <v>9123.88503592495</v>
+        <v>8830.0040634673569</v>
       </c>
     </row>
     <row r="35">
@@ -351,7 +351,7 @@
         <v>44888.385416666664</v>
       </c>
       <c r="B35" s="0">
-        <v>6731.9088962083615</v>
+        <v>11112.88316280282</v>
       </c>
     </row>
     <row r="36">
@@ -359,7 +359,7 @@
         <v>44888.395833333336</v>
       </c>
       <c r="B36" s="0">
-        <v>9410.3492442742408</v>
+        <v>10854.444019481825</v>
       </c>
     </row>
     <row r="37">
@@ -367,7 +367,7 @@
         <v>44888.40625</v>
       </c>
       <c r="B37" s="0">
-        <v>6717.5856857908966</v>
+        <v>9289.451429371351</v>
       </c>
     </row>
     <row r="38">
@@ -375,7 +375,7 @@
         <v>44888.416666666664</v>
       </c>
       <c r="B38" s="0">
-        <v>6860.817789965542</v>
+        <v>9188.9473180798504</v>
       </c>
     </row>
     <row r="39">
@@ -383,7 +383,7 @@
         <v>44888.427083333336</v>
       </c>
       <c r="B39" s="0">
-        <v>9138.2082463424122</v>
+        <v>6044.604407674402</v>
       </c>
     </row>
     <row r="40">
@@ -391,7 +391,7 @@
         <v>44888.4375</v>
       </c>
       <c r="B40" s="0">
-        <v>5213.6485919571141</v>
+        <v>7193.2228224343835</v>
       </c>
     </row>
     <row r="41">
@@ -399,7 +399,7 @@
         <v>44888.447916666664</v>
       </c>
       <c r="B41" s="0">
-        <v>6674.6160545385019</v>
+        <v>7193.2228224343835</v>
       </c>
     </row>
     <row r="42">
@@ -407,7 +407,7 @@
         <v>44888.458333333336</v>
       </c>
       <c r="B42" s="0">
-        <v>6889.4642108004709</v>
+        <v>5254.9292475269149</v>
       </c>
     </row>
     <row r="43">
@@ -415,7 +415,7 @@
         <v>44888.46875</v>
       </c>
       <c r="B43" s="0">
-        <v>9481.9652963615645</v>
+        <v>10509.85849505383</v>
       </c>
     </row>
     <row r="44">
@@ -423,7 +423,7 @@
         <v>44888.479166666664</v>
       </c>
       <c r="B44" s="0">
-        <v>7419.4229962466616</v>
+        <v>9504.8173821388446</v>
       </c>
     </row>
     <row r="45">
@@ -431,7 +431,7 @@
         <v>44888.489583333336</v>
       </c>
       <c r="B45" s="0">
-        <v>9782.7527151283193</v>
+        <v>6346.1167415488972</v>
       </c>
     </row>
     <row r="46">
@@ -439,7 +439,7 @@
         <v>44888.5</v>
       </c>
       <c r="B46" s="0">
-        <v>8207.1995692072142</v>
+        <v>7451.6619657553792</v>
       </c>
     </row>
     <row r="47">
@@ -447,7 +447,7 @@
         <v>44888.510416666664</v>
       </c>
       <c r="B47" s="0">
-        <v>6359.5054253542812</v>
+        <v>9188.9473180798504</v>
       </c>
     </row>
     <row r="48">
@@ -455,7 +455,7 @@
         <v>44888.520833333336</v>
       </c>
       <c r="B48" s="0">
-        <v>6574.3535816162503</v>
+        <v>10208.346161179334</v>
       </c>
     </row>
     <row r="49">
@@ -463,7 +463,7 @@
         <v>44888.53125</v>
       </c>
       <c r="B49" s="0">
-        <v>4454.5184398314896</v>
+        <v>8270.0525862718659</v>
       </c>
     </row>
     <row r="50">
@@ -471,7 +471,7 @@
         <v>44888.541666666664</v>
       </c>
       <c r="B50" s="0">
-        <v>7347.8069441593389</v>
+        <v>8571.5649201463621</v>
       </c>
     </row>
     <row r="51">
@@ -479,7 +479,7 @@
         <v>44888.552083333336</v>
       </c>
       <c r="B51" s="0">
-        <v>4397.2255981616318</v>
+        <v>9045.3700162348541</v>
       </c>
     </row>
     <row r="52">
@@ -487,7 +487,7 @@
         <v>44888.5625</v>
       </c>
       <c r="B52" s="0">
-        <v>7505.3622587514501</v>
+        <v>5886.6693756449049</v>
       </c>
     </row>
     <row r="53">
@@ -495,7 +495,7 @@
         <v>44888.572916666664</v>
       </c>
       <c r="B53" s="0">
-        <v>6173.303689927242</v>
+        <v>5499.0106606634108</v>
       </c>
     </row>
     <row r="54">
@@ -503,7 +503,7 @@
         <v>44888.583333333336</v>
       </c>
       <c r="B54" s="0">
-        <v>7433.7462066641256</v>
+        <v>5197.4983267889156</v>
       </c>
     </row>
     <row r="55">
@@ -511,7 +511,7 @@
         <v>44888.59375</v>
       </c>
       <c r="B55" s="0">
-        <v>3122.4598710072823</v>
+        <v>5944.1002963829033</v>
       </c>
     </row>
     <row r="56">
@@ -519,7 +519,7 @@
         <v>44888.604166666664</v>
       </c>
       <c r="B56" s="0">
-        <v>5872.5162711604844</v>
+        <v>7595.2392676003765</v>
       </c>
     </row>
     <row r="57">
@@ -527,7 +527,7 @@
         <v>44888.614583333336</v>
       </c>
       <c r="B57" s="0">
-        <v>5972.7787440827378</v>
+        <v>5154.4251362354171</v>
       </c>
     </row>
     <row r="58">
@@ -535,7 +535,7 @@
         <v>44888.625</v>
       </c>
       <c r="B58" s="0">
-        <v>3194.0759230946051</v>
+        <v>3689.9366574164405</v>
       </c>
     </row>
     <row r="59">
@@ -543,7 +543,7 @@
         <v>44888.635416666664</v>
       </c>
       <c r="B59" s="0">
-        <v>7218.8980504021574</v>
+        <v>6303.0435509953977</v>
       </c>
     </row>
     <row r="60">
@@ -551,7 +551,7 @@
         <v>44888.645833333336</v>
       </c>
       <c r="B60" s="0">
-        <v>7233.2212608196223</v>
+        <v>7853.6784109213722</v>
       </c>
     </row>
     <row r="61">
@@ -559,7 +559,7 @@
         <v>44888.65625</v>
       </c>
       <c r="B61" s="0">
-        <v>6087.3644274224544</v>
+        <v>10524.216225238328</v>
       </c>
     </row>
     <row r="62">
@@ -567,7 +567,7 @@
         <v>44888.666666666664</v>
       </c>
       <c r="B62" s="0">
-        <v>7448.0694170815905</v>
+        <v>4479.6118175639276</v>
       </c>
     </row>
     <row r="63">
@@ -575,7 +575,7 @@
         <v>44888.677083333336</v>
       </c>
       <c r="B63" s="0">
-        <v>9109.5618255074842</v>
+        <v>5226.2137871579152</v>
       </c>
     </row>
     <row r="64">
@@ -583,7 +583,7 @@
         <v>44888.6875</v>
       </c>
       <c r="B64" s="0">
-        <v>7247.5444712370872</v>
+        <v>9346.8823501093484</v>
       </c>
     </row>
     <row r="65">
@@ -591,7 +591,7 @@
         <v>44888.697916666664</v>
       </c>
       <c r="B65" s="0">
-        <v>6216.2733211796358</v>
+        <v>6633.2713452388925</v>
       </c>
     </row>
     <row r="66">
@@ -599,7 +599,7 @@
         <v>44888.708333333336</v>
       </c>
       <c r="B66" s="0">
-        <v>5700.6377461509101</v>
+        <v>6245.6126302573985</v>
       </c>
     </row>
     <row r="67">
@@ -607,7 +607,7 @@
         <v>44888.71875</v>
       </c>
       <c r="B67" s="0">
-        <v>6574.3535816162503</v>
+        <v>7379.8733148328811</v>
       </c>
     </row>
     <row r="68">
@@ -615,7 +615,7 @@
         <v>44888.729166666664</v>
       </c>
       <c r="B68" s="0">
-        <v>8937.6833004979089</v>
+        <v>4752.4086910694223</v>
       </c>
     </row>
     <row r="69">
@@ -623,7 +623,7 @@
         <v>44888.739583333336</v>
       </c>
       <c r="B69" s="0">
-        <v>9066.5921942550904</v>
+        <v>5326.717898449414</v>
       </c>
     </row>
     <row r="70">
@@ -631,7 +631,7 @@
         <v>44888.75</v>
       </c>
       <c r="B70" s="0">
-        <v>9080.9154046725544</v>
+        <v>8384.9144277478645</v>
       </c>
     </row>
     <row r="71">
@@ -639,7 +639,7 @@
         <v>44888.760416666664</v>
       </c>
       <c r="B71" s="0">
-        <v>7204.5748399846934</v>
+        <v>6245.6126302573985</v>
       </c>
     </row>
     <row r="72">
@@ -647,7 +647,7 @@
         <v>44888.770833333336</v>
       </c>
       <c r="B72" s="0">
-        <v>5557.4056419762637</v>
+        <v>8801.2886030983591</v>
       </c>
     </row>
     <row r="73">
@@ -655,7 +655,7 @@
         <v>44888.78125</v>
       </c>
       <c r="B73" s="0">
-        <v>10183.802606817329</v>
+        <v>5053.9210249439184</v>
       </c>
     </row>
     <row r="74">
@@ -663,7 +663,7 @@
         <v>44888.791666666664</v>
       </c>
       <c r="B74" s="0">
-        <v>5227.9718023745781</v>
+        <v>8930.5081747588556</v>
       </c>
     </row>
     <row r="75">
@@ -671,7 +671,7 @@
         <v>44888.802083333336</v>
       </c>
       <c r="B75" s="0">
-        <v>5414.1735378016183</v>
+        <v>6446.6208528403959</v>
       </c>
     </row>
     <row r="76">
@@ -679,7 +679,7 @@
         <v>44888.8125</v>
       </c>
       <c r="B76" s="0">
-        <v>3666.741866870937</v>
+        <v>8815.6463332828571</v>
       </c>
     </row>
     <row r="77">
@@ -687,7 +687,7 @@
         <v>44888.822916666664</v>
       </c>
       <c r="B77" s="0">
-        <v>8106.9370962849625</v>
+        <v>3000.7656085604513</v>
       </c>
     </row>
     <row r="78">
@@ -695,7 +695,7 @@
         <v>44888.833333333336</v>
       </c>
       <c r="B78" s="0">
-        <v>5557.4056419762637</v>
+        <v>4709.3355005159237</v>
       </c>
     </row>
     <row r="79">
@@ -703,7 +703,7 @@
         <v>44888.84375</v>
       </c>
       <c r="B79" s="0">
-        <v>7677.2407837610244</v>
+        <v>7006.5723300358868</v>
       </c>
     </row>
     <row r="80">
@@ -711,7 +711,7 @@
         <v>44888.854166666664</v>
       </c>
       <c r="B80" s="0">
-        <v>7720.2104150134182</v>
+        <v>7480.377426124378</v>
       </c>
     </row>
     <row r="81">
@@ -719,7 +719,7 @@
         <v>44888.864583333336</v>
       </c>
       <c r="B81" s="0">
-        <v>8250.1692004596098</v>
+        <v>5513.3683908479115</v>
       </c>
     </row>
     <row r="82">
@@ -727,7 +727,7 @@
         <v>44888.875</v>
       </c>
       <c r="B82" s="0">
-        <v>5629.0216940635864</v>
+        <v>7695.7433788918752</v>
       </c>
     </row>
     <row r="83">
@@ -735,7 +735,7 @@
         <v>44888.885416666664</v>
       </c>
       <c r="B83" s="0">
-        <v>6560.0303711987863</v>
+        <v>5700.0188832464073</v>
       </c>
     </row>
     <row r="84">
@@ -743,7 +743,7 @@
         <v>44888.895833333336</v>
       </c>
       <c r="B84" s="0">
-        <v>5457.1431690540121</v>
+        <v>8456.7030786703635</v>
       </c>
     </row>
     <row r="85">
@@ -751,7 +751,7 @@
         <v>44888.90625</v>
       </c>
       <c r="B85" s="0">
-        <v>6961.0802628877955</v>
+        <v>8585.9226503308619</v>
       </c>
     </row>
     <row r="86">
@@ -759,7 +759,7 @@
         <v>44888.916666666664</v>
       </c>
       <c r="B86" s="0">
-        <v>6302.2125836844234</v>
+        <v>5326.717898449414</v>
       </c>
     </row>
     <row r="87">
@@ -767,7 +767,7 @@
         <v>44888.927083333336</v>
       </c>
       <c r="B87" s="0">
-        <v>6158.980479509778</v>
+        <v>9031.0122860503525</v>
       </c>
     </row>
     <row r="88">
@@ -775,7 +775,7 @@
         <v>44888.9375</v>
       </c>
       <c r="B88" s="0">
-        <v>7834.7960983531348</v>
+        <v>7107.0764413273846</v>
       </c>
     </row>
     <row r="89">
@@ -783,7 +783,7 @@
         <v>44888.947916666664</v>
       </c>
       <c r="B89" s="0">
-        <v>7806.1496775182059</v>
+        <v>4034.5221818444347</v>
       </c>
     </row>
     <row r="90">
@@ -791,7 +791,7 @@
         <v>44888.958333333336</v>
       </c>
       <c r="B90" s="0">
-        <v>7290.5141024894801</v>
+        <v>8126.4752844268687</v>
       </c>
     </row>
     <row r="91">
@@ -799,7 +799,7 @@
         <v>44888.96875</v>
       </c>
       <c r="B91" s="0">
-        <v>6216.2733211796358</v>
+        <v>5613.8725021394084</v>
       </c>
     </row>
     <row r="92">
@@ -807,7 +807,7 @@
         <v>44888.979166666664</v>
       </c>
       <c r="B92" s="0">
-        <v>7605.6247316737017</v>
+        <v>5384.1488191874123</v>
       </c>
     </row>
     <row r="93">
@@ -815,7 +815,7 @@
         <v>44888.989583333336</v>
       </c>
       <c r="B93" s="0">
-        <v>6588.6767920337152</v>
+        <v>4795.4818816229226</v>
       </c>
     </row>
     <row r="94">
@@ -823,7 +823,7 @@
         <v>44889</v>
       </c>
       <c r="B94" s="0">
-        <v>7376.4533649942678</v>
+        <v>4967.7746438369195</v>
       </c>
     </row>
     <row r="95">
@@ -831,7 +831,7 @@
         <v>44889.010416666664</v>
       </c>
       <c r="B95" s="0">
-        <v>5299.5878544619009</v>
+        <v>11342.606845754817</v>
       </c>
     </row>
     <row r="96">
@@ -839,7 +839,7 @@
         <v>44889.020833333336</v>
       </c>
       <c r="B96" s="0">
-        <v>5428.4967482190832</v>
+        <v>9045.3700162348541</v>
       </c>
     </row>
     <row r="97">
@@ -847,7 +847,7 @@
         <v>44889.03125</v>
       </c>
       <c r="B97" s="0">
-        <v>4998.8004356951442</v>
+        <v>8083.4020938733684</v>
       </c>
     </row>
     <row r="98">
@@ -855,7 +855,7 @@
         <v>44889.041666666664</v>
       </c>
       <c r="B98" s="0">
-        <v>8565.2798296438286</v>
+        <v>6633.2713452388925</v>
       </c>
     </row>
     <row r="99">
@@ -863,7 +863,7 @@
         <v>44889.052083333336</v>
       </c>
       <c r="B99" s="0">
-        <v>7849.1193087705997</v>
+        <v>7566.5238072313768</v>
       </c>
     </row>
     <row r="100">
@@ -871,7 +871,7 @@
         <v>44889.0625</v>
       </c>
       <c r="B100" s="0">
-        <v>6645.969633703573</v>
+        <v>5125.7096758664165</v>
       </c>
     </row>
     <row r="101">
@@ -879,7 +879,7 @@
         <v>44889.072916666664</v>
       </c>
       <c r="B101" s="0">
-        <v>9653.8438213711379</v>
+        <v>4694.9777703314239</v>
       </c>
     </row>
     <row r="102">
@@ -887,7 +887,7 @@
         <v>44889.083333333336</v>
       </c>
       <c r="B102" s="0">
-        <v>6187.6269003447069</v>
+        <v>5470.2952002944112</v>
       </c>
     </row>
     <row r="103">
@@ -895,7 +895,7 @@
         <v>44889.09375</v>
       </c>
       <c r="B103" s="0">
-        <v>7720.2104150134182</v>
+        <v>7207.5805526188833</v>
       </c>
     </row>
     <row r="104">
@@ -903,7 +903,7 @@
         <v>44889.104166666664</v>
       </c>
       <c r="B104" s="0">
-        <v>5457.1431690540121</v>
+        <v>9562.2483028768456</v>
       </c>
     </row>
     <row r="105">
@@ -911,7 +911,7 @@
         <v>44889.114583333336</v>
       </c>
       <c r="B105" s="0">
-        <v>10112.186554730006</v>
+        <v>10596.004876160829</v>
       </c>
     </row>
     <row r="106">
@@ -919,7 +919,7 @@
         <v>44889.125</v>
       </c>
       <c r="B106" s="0">
-        <v>5800.9002190731617</v>
+        <v>5857.9539152759044</v>
       </c>
     </row>
     <row r="107">
@@ -927,7 +927,7 @@
         <v>44889.135416666664</v>
       </c>
       <c r="B107" s="0">
-        <v>9883.0151880505728</v>
+        <v>8442.3453484858637</v>
       </c>
     </row>
     <row r="108">
@@ -935,7 +935,7 @@
         <v>44889.145833333336</v>
       </c>
       <c r="B108" s="0">
-        <v>5886.8394815779493</v>
+        <v>5642.587962508409</v>
       </c>
     </row>
     <row r="109">
@@ -943,7 +943,7 @@
         <v>44889.15625</v>
       </c>
       <c r="B109" s="0">
-        <v>7748.8568358483481</v>
+        <v>6633.2713452388925</v>
       </c>
     </row>
     <row r="110">
@@ -951,7 +951,7 @@
         <v>44889.166666666664</v>
       </c>
       <c r="B110" s="0">
-        <v>7004.0498941401884</v>
+        <v>7207.5805526188833</v>
       </c>
     </row>
     <row r="111">
@@ -959,7 +959,7 @@
         <v>44889.177083333336</v>
       </c>
       <c r="B111" s="0">
-        <v>8250.1692004596098</v>
+        <v>8011.6134429508702</v>
       </c>
     </row>
     <row r="112">
@@ -967,7 +967,7 @@
         <v>44889.1875</v>
       </c>
       <c r="B112" s="0">
-        <v>4655.0433856759946</v>
+        <v>6949.1414092978875</v>
       </c>
     </row>
     <row r="113">
@@ -975,7 +975,7 @@
         <v>44889.197916666664</v>
       </c>
       <c r="B113" s="0">
-        <v>6588.6767920337152</v>
+        <v>6661.9868056078922</v>
       </c>
     </row>
     <row r="114">
@@ -983,7 +983,7 @@
         <v>44889.208333333336</v>
       </c>
       <c r="B114" s="0">
-        <v>6474.0911086939986</v>
+        <v>7135.7919016963851</v>
       </c>
     </row>
     <row r="115">
@@ -991,7 +991,7 @@
         <v>44889.21875</v>
       </c>
       <c r="B115" s="0">
-        <v>4655.0433856759946</v>
+        <v>7006.5723300358868</v>
       </c>
     </row>
     <row r="116">
@@ -999,7 +999,7 @@
         <v>44889.229166666664</v>
       </c>
       <c r="B116" s="0">
-        <v>9052.2689838376245</v>
+        <v>6130.7507887813999</v>
       </c>
     </row>
     <row r="117">
@@ -1007,7 +1007,7 @@
         <v>44889.239583333336</v>
       </c>
       <c r="B117" s="0">
-        <v>5944.132323247808</v>
+        <v>8384.9144277478645</v>
       </c>
     </row>
     <row r="118">
@@ -1015,7 +1015,7 @@
         <v>44889.25</v>
       </c>
       <c r="B118" s="0">
-        <v>5514.4360107238699</v>
+        <v>7753.1742996298744</v>
       </c>
     </row>
     <row r="119">
@@ -1023,7 +1023,7 @@
         <v>44889.260416666664</v>
       </c>
       <c r="B119" s="0">
-        <v>11157.780915204923</v>
+        <v>6518.4095037628949</v>
       </c>
     </row>
     <row r="120">
@@ -1031,7 +1031,7 @@
         <v>44889.270833333336</v>
       </c>
       <c r="B120" s="0">
-        <v>7662.9175733435595</v>
+        <v>4939.0591834679199</v>
       </c>
     </row>
     <row r="121">
@@ -1039,7 +1039,7 @@
         <v>44889.28125</v>
       </c>
       <c r="B121" s="0">
-        <v>9224.1475088472016</v>
+        <v>6058.9621378589018</v>
       </c>
     </row>
     <row r="122">
@@ -1047,7 +1047,7 @@
         <v>44889.291666666664</v>
       </c>
       <c r="B122" s="0">
-        <v>6946.7570524703306</v>
+        <v>6618.9136150543927</v>
       </c>
     </row>
     <row r="123">
@@ -1055,7 +1055,7 @@
         <v>44889.302083333336</v>
       </c>
       <c r="B123" s="0">
-        <v>8765.8047754883337</v>
+        <v>8887.4349842053562</v>
       </c>
     </row>
     <row r="124">
@@ -1063,7 +1063,7 @@
         <v>44889.3125</v>
       </c>
       <c r="B124" s="0">
-        <v>8579.6030400612945</v>
+        <v>6331.7590113643973</v>
       </c>
     </row>
     <row r="125">
@@ -1071,7 +1071,7 @@
         <v>44889.322916666664</v>
       </c>
       <c r="B125" s="0">
-        <v>7548.331890003843</v>
+        <v>7954.1825222128709</v>
       </c>
     </row>
     <row r="126">
@@ -1079,7 +1079,7 @@
         <v>44889.333333333336</v>
       </c>
       <c r="B126" s="0">
-        <v>7691.5639941784884</v>
+        <v>7064.0032507738852</v>
       </c>
     </row>
     <row r="127">
@@ -1087,7 +1087,7 @@
         <v>44889.34375</v>
       </c>
       <c r="B127" s="0">
-        <v>8550.9566192263646</v>
+        <v>6590.1981546853931</v>
       </c>
     </row>
     <row r="128">
@@ -1095,7 +1095,7 @@
         <v>44889.354166666664</v>
       </c>
       <c r="B128" s="0">
-        <v>2477.9154022213756</v>
+        <v>6188.1817095194001</v>
       </c>
     </row>
     <row r="129">
@@ -1103,7 +1103,7 @@
         <v>44889.364583333336</v>
       </c>
       <c r="B129" s="0">
-        <v>9095.2386150900202</v>
+        <v>8327.4835070098652</v>
       </c>
     </row>
     <row r="130">
@@ -1111,7 +1111,7 @@
         <v>44889.375</v>
       </c>
       <c r="B130" s="0">
-        <v>7204.5748399846934</v>
+        <v>9145.8741275263528</v>
       </c>
     </row>
     <row r="131">
@@ -1119,7 +1119,7 @@
         <v>44889.385416666664</v>
       </c>
       <c r="B131" s="0">
-        <v>10713.761392263519</v>
+        <v>1981.3667654609678</v>
       </c>
     </row>
     <row r="132">
@@ -1127,7 +1127,7 @@
         <v>44889.395833333336</v>
       </c>
       <c r="B132" s="0">
-        <v>7806.1496775182059</v>
+        <v>8715.1422219913584</v>
       </c>
     </row>
     <row r="133">
@@ -1135,7 +1135,7 @@
         <v>44889.40625</v>
       </c>
       <c r="B133" s="0">
-        <v>4583.4273335886719</v>
+        <v>6145.1085189659007</v>
       </c>
     </row>
     <row r="134">
@@ -1143,7 +1143,7 @@
         <v>44889.416666666664</v>
       </c>
       <c r="B134" s="0">
-        <v>6015.7483753351316</v>
+        <v>10438.069844131331</v>
       </c>
     </row>
     <row r="135">
@@ -1151,7 +1151,7 @@
         <v>44889.427083333336</v>
       </c>
       <c r="B135" s="0">
-        <v>5056.0932773650029</v>
+        <v>5800.522994537906</v>
       </c>
     </row>
     <row r="136">
@@ -1159,7 +1159,7 @@
         <v>44889.4375</v>
       </c>
       <c r="B136" s="0">
-        <v>6345.1822149368163</v>
+        <v>8356.1989673788648</v>
       </c>
     </row>
     <row r="137">
@@ -1167,7 +1167,7 @@
         <v>44889.447916666664</v>
       </c>
       <c r="B137" s="0">
-        <v>10570.529288088874</v>
+        <v>7322.4423940948809</v>
       </c>
     </row>
     <row r="138">
@@ -1175,7 +1175,7 @@
         <v>44889.458333333336</v>
       </c>
       <c r="B138" s="0">
-        <v>6588.6767920337152</v>
+        <v>3847.8716894459376</v>
       </c>
     </row>
     <row r="139">
@@ -1183,7 +1183,7 @@
         <v>44889.46875</v>
       </c>
       <c r="B139" s="0">
-        <v>7290.5141024894801</v>
+        <v>5700.0188832464073</v>
       </c>
     </row>
     <row r="140">
@@ -1191,7 +1191,7 @@
         <v>44889.479166666664</v>
       </c>
       <c r="B140" s="0">
-        <v>9181.1778775948078</v>
+        <v>7236.296012987882</v>
       </c>
     </row>
     <row r="141">
@@ -1199,7 +1199,7 @@
         <v>44889.489583333336</v>
       </c>
       <c r="B141" s="0">
-        <v>4082.1149689774102</v>
+        <v>8054.6866335043696</v>
       </c>
     </row>
     <row r="142">
@@ -1207,7 +1207,7 @@
         <v>44889.5</v>
       </c>
       <c r="B142" s="0">
-        <v>6402.475056606675</v>
+        <v>10193.988430994834</v>
       </c>
     </row>
     <row r="143">
@@ -1215,7 +1215,7 @@
         <v>44889.510416666664</v>
       </c>
       <c r="B143" s="0">
-        <v>6803.5249482956842</v>
+        <v>8858.7195238363565</v>
       </c>
     </row>
     <row r="144">
@@ -1223,7 +1223,7 @@
         <v>44889.520833333336</v>
       </c>
       <c r="B144" s="0">
-        <v>4554.7809127537421</v>
+        <v>5757.4498039844066</v>
       </c>
     </row>
     <row r="145">
@@ -1231,7 +1231,7 @@
         <v>44889.53125</v>
       </c>
       <c r="B145" s="0">
-        <v>7892.0889400229935</v>
+        <v>4982.1323740214193</v>
       </c>
     </row>
     <row r="146">
@@ -1239,7 +1239,7 @@
         <v>44889.541666666664</v>
       </c>
       <c r="B146" s="0">
-        <v>4698.0130169283884</v>
+        <v>8485.4185390393613</v>
       </c>
     </row>
     <row r="147">
@@ -1247,7 +1247,7 @@
         <v>44889.552083333336</v>
       </c>
       <c r="B147" s="0">
-        <v>6158.980479509778</v>
+        <v>10021.695668780836</v>
       </c>
     </row>
     <row r="148">
@@ -1255,7 +1255,7 @@
         <v>44889.5625</v>
       </c>
       <c r="B148" s="0">
-        <v>6846.494579548078</v>
+        <v>9332.5246199248486</v>
       </c>
     </row>
     <row r="149">
@@ -1263,7 +1263,7 @@
         <v>44889.572916666664</v>
       </c>
       <c r="B149" s="0">
-        <v>7032.6963149751182</v>
+        <v>9619.6792236148449</v>
       </c>
     </row>
     <row r="150">
@@ -1271,7 +1271,7 @@
         <v>44889.583333333336</v>
       </c>
       <c r="B150" s="0">
-        <v>5944.132323247808</v>
+        <v>6949.1414092978875</v>
       </c>
     </row>
     <row r="151">
@@ -1279,7 +1279,7 @@
         <v>44889.59375</v>
       </c>
       <c r="B151" s="0">
-        <v>9940.3080297204306</v>
+        <v>9677.1101443528423</v>
       </c>
     </row>
     <row r="152">
@@ -1287,7 +1287,7 @@
         <v>44889.604166666664</v>
       </c>
       <c r="B152" s="0">
-        <v>7362.1301545768029</v>
+        <v>7853.6784109213722</v>
       </c>
     </row>
     <row r="153">
@@ -1295,7 +1295,7 @@
         <v>44889.614583333336</v>
       </c>
       <c r="B153" s="0">
-        <v>4096.4381793948751</v>
+        <v>8241.3371259028663</v>
       </c>
     </row>
     <row r="154">
@@ -1303,7 +1303,7 @@
         <v>44889.625</v>
       </c>
       <c r="B154" s="0">
-        <v>7089.989156644976</v>
+        <v>7193.2228224343835</v>
       </c>
     </row>
     <row r="155">
@@ -1311,7 +1311,7 @@
         <v>44889.635416666664</v>
       </c>
       <c r="B155" s="0">
-        <v>7935.0585712753873</v>
+        <v>7178.8650922498837</v>
       </c>
     </row>
     <row r="156">
@@ -1319,7 +1319,7 @@
         <v>44889.645833333336</v>
       </c>
       <c r="B156" s="0">
-        <v>7978.0282025277811</v>
+        <v>6891.7104885598883</v>
       </c>
     </row>
     <row r="157">
@@ -1327,7 +1327,7 @@
         <v>44889.65625</v>
       </c>
       <c r="B157" s="0">
-        <v>7834.7960983531348</v>
+        <v>9045.3700162348541</v>
       </c>
     </row>
     <row r="158">
@@ -1335,7 +1335,7 @@
         <v>44889.666666666664</v>
       </c>
       <c r="B158" s="0">
-        <v>9481.9652963615645</v>
+        <v>4149.3840233204328</v>
       </c>
     </row>
     <row r="159">
@@ -1343,7 +1343,7 @@
         <v>44889.677083333336</v>
       </c>
       <c r="B159" s="0">
-        <v>9066.5921942550904</v>
+        <v>6288.6858208108979</v>
       </c>
     </row>
     <row r="160">
@@ -1351,7 +1351,7 @@
         <v>44889.6875</v>
       </c>
       <c r="B160" s="0">
-        <v>8937.6833004979089</v>
+        <v>8083.4020938733684</v>
       </c>
     </row>
     <row r="161">
@@ -1359,7 +1359,7 @@
         <v>44889.697916666664</v>
       </c>
       <c r="B161" s="0">
-        <v>10685.114971428589</v>
+        <v>4307.3190553499307</v>
       </c>
     </row>
     <row r="162">
@@ -1367,7 +1367,7 @@
         <v>44889.708333333336</v>
       </c>
       <c r="B162" s="0">
-        <v>7763.1800462658121</v>
+        <v>8183.9062051648671</v>
       </c>
     </row>
     <row r="163">
@@ -1375,7 +1375,7 @@
         <v>44889.71875</v>
       </c>
       <c r="B163" s="0">
-        <v>9840.0455567981789</v>
+        <v>9174.5895878953506</v>
       </c>
     </row>
     <row r="164">
@@ -1383,7 +1383,7 @@
         <v>44889.729166666664</v>
       </c>
       <c r="B164" s="0">
-        <v>1819.047723018004</v>
+        <v>6705.0599961613916</v>
       </c>
     </row>
     <row r="165">
@@ -1391,7 +1391,7 @@
         <v>44889.739583333336</v>
       </c>
       <c r="B165" s="0">
-        <v>6402.475056606675</v>
+        <v>6705.0599961613916</v>
       </c>
     </row>
     <row r="166">
@@ -1399,7 +1399,7 @@
         <v>44889.75</v>
       </c>
       <c r="B166" s="0">
-        <v>9825.722346380715</v>
+        <v>4364.7499760879291</v>
       </c>
     </row>
     <row r="167">
@@ -1407,7 +1407,7 @@
         <v>44889.760416666664</v>
       </c>
       <c r="B167" s="0">
-        <v>9567.9045588663503</v>
+        <v>7164.5073620653839</v>
       </c>
     </row>
     <row r="168">
@@ -1415,7 +1415,7 @@
         <v>44889.770833333336</v>
       </c>
       <c r="B168" s="0">
-        <v>9467.6420859441005</v>
+        <v>6633.2713452388925</v>
       </c>
     </row>
     <row r="169">
@@ -1423,7 +1423,7 @@
         <v>44889.78125</v>
       </c>
       <c r="B169" s="0">
-        <v>6087.3644274224544</v>
+        <v>8930.5081747588556</v>
       </c>
     </row>
     <row r="170">
@@ -1431,7 +1431,7 @@
         <v>44889.791666666664</v>
       </c>
       <c r="B170" s="0">
-        <v>10255.418658904653</v>
+        <v>6949.1414092978875</v>
       </c>
     </row>
     <row r="171">
@@ -1439,7 +1439,7 @@
         <v>44889.802083333336</v>
       </c>
       <c r="B171" s="0">
-        <v>11243.720177709709</v>
+        <v>2799.7573859774543</v>
       </c>
     </row>
     <row r="172">
@@ -1447,7 +1447,7 @@
         <v>44889.8125</v>
       </c>
       <c r="B172" s="0">
-        <v>8321.7852525469316</v>
+        <v>8858.7195238363565</v>
       </c>
     </row>
     <row r="173">
@@ -1455,7 +1455,7 @@
         <v>44889.822916666664</v>
       </c>
       <c r="B173" s="0">
-        <v>5471.4663794714761</v>
+        <v>9102.8009369728534</v>
       </c>
     </row>
     <row r="174">
@@ -1463,7 +1463,7 @@
         <v>44889.833333333336</v>
       </c>
       <c r="B174" s="0">
-        <v>6001.4251649176667</v>
+        <v>11787.69648147431</v>
       </c>
     </row>
     <row r="175">
@@ -1471,7 +1471,7 @@
         <v>44889.84375</v>
       </c>
       <c r="B175" s="0">
-        <v>8121.2603067024274</v>
+        <v>10753.939908190325</v>
       </c>
     </row>
     <row r="176">
@@ -1479,7 +1479,7 @@
         <v>44889.854166666664</v>
       </c>
       <c r="B176" s="0">
-        <v>7161.6052087322987</v>
+        <v>7982.8979825818706</v>
       </c>
     </row>
     <row r="177">
@@ -1487,7 +1487,7 @@
         <v>44889.864583333336</v>
       </c>
       <c r="B177" s="0">
-        <v>4425.8720189965607</v>
+        <v>5254.9292475269149</v>
       </c>
     </row>
     <row r="178">
@@ -1495,7 +1495,7 @@
         <v>44889.875</v>
       </c>
       <c r="B178" s="0">
-        <v>7061.3427358100471</v>
+        <v>7394.23104501738</v>
       </c>
     </row>
     <row r="179">
@@ -1503,7 +1503,7 @@
         <v>44889.885416666664</v>
       </c>
       <c r="B179" s="0">
-        <v>5786.5770086556977</v>
+        <v>8628.9958408843613</v>
       </c>
     </row>
     <row r="180">
@@ -1511,7 +1511,7 @@
         <v>44889.895833333336</v>
       </c>
       <c r="B180" s="0">
-        <v>5027.446856530074</v>
+        <v>10466.78530450033</v>
       </c>
     </row>
     <row r="181">
@@ -1519,7 +1519,7 @@
         <v>44889.90625</v>
       </c>
       <c r="B181" s="0">
-        <v>8106.9370962849625</v>
+        <v>6489.6940433938944</v>
       </c>
     </row>
     <row r="182">
@@ -1527,7 +1527,7 @@
         <v>44889.916666666664</v>
       </c>
       <c r="B182" s="0">
-        <v>6044.3947961700605</v>
+        <v>9720.1833349063418</v>
       </c>
     </row>
     <row r="183">
@@ -1535,7 +1535,7 @@
         <v>44889.927083333336</v>
       </c>
       <c r="B183" s="0">
-        <v>6932.4338420528647</v>
+        <v>10337.565732839834</v>
       </c>
     </row>
     <row r="184">
@@ -1543,7 +1543,7 @@
         <v>44889.9375</v>
       </c>
       <c r="B184" s="0">
-        <v>7061.3427358100471</v>
+        <v>5656.9456926929088</v>
       </c>
     </row>
     <row r="185">
@@ -1551,7 +1551,7 @@
         <v>44889.947916666664</v>
       </c>
       <c r="B185" s="0">
-        <v>5600.3752732286575</v>
+        <v>7623.954727969377</v>
       </c>
     </row>
     <row r="186">
@@ -1559,7 +1559,7 @@
         <v>44889.958333333336</v>
       </c>
       <c r="B186" s="0">
-        <v>1618.5227771734997</v>
+        <v>6862.9950281908887</v>
       </c>
     </row>
     <row r="187">
@@ -1567,7 +1567,7 @@
         <v>44889.96875</v>
       </c>
       <c r="B187" s="0">
-        <v>9324.4099817694532</v>
+        <v>4738.0509608849234</v>
       </c>
     </row>
     <row r="188">
@@ -1575,7 +1575,7 @@
         <v>44889.979166666664</v>
       </c>
       <c r="B188" s="0">
-        <v>8694.1887234010101</v>
+        <v>10495.50076486933</v>
       </c>
     </row>
     <row r="189">
@@ -1583,7 +1583,7 @@
         <v>44889.989583333336</v>
       </c>
       <c r="B189" s="0">
-        <v>6416.798267024139</v>
+        <v>9059.7277464193539</v>
       </c>
     </row>
     <row r="190">
@@ -1591,7 +1591,7 @@
         <v>44890</v>
       </c>
       <c r="B190" s="0">
-        <v>10255.418658904653</v>
+        <v>6403.5476622868964</v>
       </c>
     </row>
     <row r="191">
@@ -1599,7 +1599,7 @@
         <v>44890.010416666664</v>
       </c>
       <c r="B191" s="0">
-        <v>8980.6529317503027</v>
+        <v>10007.337938596336</v>
       </c>
     </row>
     <row r="192">
@@ -1607,7 +1607,7 @@
         <v>44890.020833333336</v>
       </c>
       <c r="B192" s="0">
-        <v>8135.5835171198914</v>
+        <v>8987.939095496853</v>
       </c>
     </row>
     <row r="193">
@@ -1615,7 +1615,7 @@
         <v>44890.03125</v>
       </c>
       <c r="B193" s="0">
-        <v>6961.0802628877955</v>
+        <v>6518.4095037628949</v>
       </c>
     </row>
     <row r="194">
@@ -1623,7 +1623,7 @@
         <v>44890.041666666664</v>
       </c>
       <c r="B194" s="0">
-        <v>6989.7266837227244</v>
+        <v>8298.7680466408656</v>
       </c>
     </row>
     <row r="195">
@@ -1631,7 +1631,7 @@
         <v>44890.052083333336</v>
       </c>
       <c r="B195" s="0">
-        <v>10212.449027652259</v>
+        <v>8399.2721579323643</v>
       </c>
     </row>
     <row r="196">
@@ -1639,7 +1639,7 @@
         <v>44890.0625</v>
       </c>
       <c r="B196" s="0">
-        <v>6875.1410003830069</v>
+        <v>11601.045989075812</v>
       </c>
     </row>
     <row r="197">
@@ -1647,7 +1647,7 @@
         <v>44890.072916666664</v>
       </c>
       <c r="B197" s="0">
-        <v>5643.3449044810523</v>
+        <v>7824.9629505523726</v>
       </c>
     </row>
     <row r="198">
@@ -1655,7 +1655,7 @@
         <v>44890.083333333336</v>
       </c>
       <c r="B198" s="0">
-        <v>11845.295015243222</v>
+        <v>6949.1414092978875</v>
       </c>
     </row>
     <row r="199">
@@ -1663,7 +1663,7 @@
         <v>44890.09375</v>
       </c>
       <c r="B199" s="0">
-        <v>7075.6659462275111</v>
+        <v>6977.8568696668863</v>
       </c>
     </row>
     <row r="200">
@@ -1671,7 +1671,7 @@
         <v>44890.104166666664</v>
       </c>
       <c r="B200" s="0">
-        <v>7018.3731045576533</v>
+        <v>3402.7820537264447</v>
       </c>
     </row>
     <row r="201">
@@ -1679,7 +1679,6407 @@
         <v>44890.114583333336</v>
       </c>
       <c r="B201" s="0">
-        <v>12303.63774860209</v>
+        <v>7351.1578544638805</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="1">
+        <v>44890.125</v>
+      </c>
+      <c r="B202" s="0">
+        <v>7523.4506166778783</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="1">
+        <v>44890.135416666664</v>
+      </c>
+      <c r="B203" s="0">
+        <v>7623.954727969377</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="1">
+        <v>44890.145833333336</v>
+      </c>
+      <c r="B204" s="0">
+        <v>6015.8889473054032</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="1">
+        <v>44890.15625</v>
+      </c>
+      <c r="B205" s="0">
+        <v>7810.6052203678737</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="1">
+        <v>44890.166666666664</v>
+      </c>
+      <c r="B206" s="0">
+        <v>6862.9950281908887</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="1">
+        <v>44890.177083333336</v>
+      </c>
+      <c r="B207" s="0">
+        <v>7135.7919016963851</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="1">
+        <v>44890.1875</v>
+      </c>
+      <c r="B208" s="0">
+        <v>6389.1899321023966</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="1">
+        <v>44890.197916666664</v>
+      </c>
+      <c r="B209" s="0">
+        <v>5786.1652643534062</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="1">
+        <v>44890.208333333336</v>
+      </c>
+      <c r="B210" s="0">
+        <v>9777.614255644341</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="1">
+        <v>44890.21875</v>
+      </c>
+      <c r="B211" s="0">
+        <v>8011.6134429508702</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="1">
+        <v>44890.229166666664</v>
+      </c>
+      <c r="B212" s="0">
+        <v>4824.1973419919223</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="1">
+        <v>44890.239583333336</v>
+      </c>
+      <c r="B213" s="0">
+        <v>6532.7672339473947</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="1">
+        <v>44890.25</v>
+      </c>
+      <c r="B214" s="0">
+        <v>7049.6455205893863</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="1">
+        <v>44890.260416666664</v>
+      </c>
+      <c r="B215" s="0">
+        <v>7020.9300602203866</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="1">
+        <v>44890.270833333336</v>
+      </c>
+      <c r="B216" s="0">
+        <v>6590.1981546853931</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="1">
+        <v>44890.28125</v>
+      </c>
+      <c r="B217" s="0">
+        <v>6475.3363132093946</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="1">
+        <v>44890.291666666664</v>
+      </c>
+      <c r="B218" s="0">
+        <v>10079.126589518837</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="1">
+        <v>44890.302083333336</v>
+      </c>
+      <c r="B219" s="0">
+        <v>5886.6693756449049</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="1">
+        <v>44890.3125</v>
+      </c>
+      <c r="B220" s="0">
+        <v>6346.1167415488972</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="1">
+        <v>44890.322916666664</v>
+      </c>
+      <c r="B221" s="0">
+        <v>6834.279567821889</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="1">
+        <v>44890.333333333336</v>
+      </c>
+      <c r="B222" s="0">
+        <v>6015.8889473054032</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="1">
+        <v>44890.34375</v>
+      </c>
+      <c r="B223" s="0">
+        <v>7006.5723300358868</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="1">
+        <v>44890.354166666664</v>
+      </c>
+      <c r="B224" s="0">
+        <v>5398.506549371913</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="1">
+        <v>44890.364583333336</v>
+      </c>
+      <c r="B225" s="0">
+        <v>9992.9802084118382</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="1">
+        <v>44890.375</v>
+      </c>
+      <c r="B226" s="0">
+        <v>8557.2071899618622</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="1">
+        <v>44890.385416666664</v>
+      </c>
+      <c r="B227" s="0">
+        <v>8686.4267616223588</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="1">
+        <v>44890.395833333336</v>
+      </c>
+      <c r="B228" s="0">
+        <v>10294.492542286334</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="1">
+        <v>44890.40625</v>
+      </c>
+      <c r="B229" s="0">
+        <v>5412.8642795564128</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="1">
+        <v>44890.416666666664</v>
+      </c>
+      <c r="B230" s="0">
+        <v>7193.2228224343835</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="1">
+        <v>44890.427083333336</v>
+      </c>
+      <c r="B231" s="0">
+        <v>4580.1159288554254</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="1">
+        <v>44890.4375</v>
+      </c>
+      <c r="B232" s="0">
+        <v>7853.6784109213722</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="1">
+        <v>44890.447916666664</v>
+      </c>
+      <c r="B233" s="0">
+        <v>8427.9876183013639</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="1">
+        <v>44890.458333333336</v>
+      </c>
+      <c r="B234" s="0">
+        <v>8241.3371259028663</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="1">
+        <v>44890.46875</v>
+      </c>
+      <c r="B235" s="0">
+        <v>8930.5081747588556</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="1">
+        <v>44890.479166666664</v>
+      </c>
+      <c r="B236" s="0">
+        <v>5140.0674060509173</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="1">
+        <v>44890.489583333336</v>
+      </c>
+      <c r="B237" s="0">
+        <v>7107.0764413273846</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="1">
+        <v>44890.5</v>
+      </c>
+      <c r="B238" s="0">
+        <v>2857.1883067154536</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="1">
+        <v>44890.510416666664</v>
+      </c>
+      <c r="B239" s="0">
+        <v>7738.8165694453737</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="1">
+        <v>44890.520833333336</v>
+      </c>
+      <c r="B240" s="0">
+        <v>4163.7417535049326</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="1">
+        <v>44890.53125</v>
+      </c>
+      <c r="B241" s="0">
+        <v>4034.5221818444347</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="1">
+        <v>44890.541666666664</v>
+      </c>
+      <c r="B242" s="0">
+        <v>7566.5238072313768</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="1">
+        <v>44890.552083333336</v>
+      </c>
+      <c r="B243" s="0">
+        <v>5958.4580265674031</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="1">
+        <v>44890.5625</v>
+      </c>
+      <c r="B244" s="0">
+        <v>9232.0205086333499</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="1">
+        <v>44890.572916666664</v>
+      </c>
+      <c r="B245" s="0">
+        <v>6216.8971698883988</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="1">
+        <v>44890.583333333336</v>
+      </c>
+      <c r="B246" s="0">
+        <v>8614.6381106998615</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="1">
+        <v>44890.59375</v>
+      </c>
+      <c r="B247" s="0">
+        <v>5728.7343436154069</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="1">
+        <v>44890.604166666664</v>
+      </c>
+      <c r="B248" s="0">
+        <v>5211.8560569734154</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" s="1">
+        <v>44890.614583333336</v>
+      </c>
+      <c r="B249" s="0">
+        <v>7035.2877904048864</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" s="1">
+        <v>44890.625</v>
+      </c>
+      <c r="B250" s="0">
+        <v>6920.4259489288879</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" s="1">
+        <v>44890.635416666664</v>
+      </c>
+      <c r="B251" s="0">
+        <v>4565.7581986709265</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" s="1">
+        <v>44890.645833333336</v>
+      </c>
+      <c r="B252" s="0">
+        <v>4723.6932307004236</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" s="1">
+        <v>44890.65625</v>
+      </c>
+      <c r="B253" s="0">
+        <v>6618.9136150543927</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" s="1">
+        <v>44890.666666666664</v>
+      </c>
+      <c r="B254" s="0">
+        <v>9777.614255644341</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" s="1">
+        <v>44890.677083333336</v>
+      </c>
+      <c r="B255" s="0">
+        <v>6848.6372980063888</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" s="1">
+        <v>44890.6875</v>
+      </c>
+      <c r="B256" s="0">
+        <v>8097.7598240578682</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" s="1">
+        <v>44890.697916666664</v>
+      </c>
+      <c r="B257" s="0">
+        <v>5140.0674060509173</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" s="1">
+        <v>44890.708333333336</v>
+      </c>
+      <c r="B258" s="0">
+        <v>5341.0756286339138</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" s="1">
+        <v>44890.71875</v>
+      </c>
+      <c r="B259" s="0">
+        <v>10079.126589518837</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" s="1">
+        <v>44890.729166666664</v>
+      </c>
+      <c r="B260" s="0">
+        <v>6748.1331867148901</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" s="1">
+        <v>44890.739583333336</v>
+      </c>
+      <c r="B261" s="0">
+        <v>6303.0435509953977</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" s="1">
+        <v>44890.75</v>
+      </c>
+      <c r="B262" s="0">
+        <v>4508.3272779329263</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" s="1">
+        <v>44890.760416666664</v>
+      </c>
+      <c r="B263" s="0">
+        <v>4623.1891194089249</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" s="1">
+        <v>44890.770833333336</v>
+      </c>
+      <c r="B264" s="0">
+        <v>4063.2376422134344</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" s="1">
+        <v>44890.78125</v>
+      </c>
+      <c r="B265" s="0">
+        <v>3532.0016253869426</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" s="1">
+        <v>44890.791666666664</v>
+      </c>
+      <c r="B266" s="0">
+        <v>7020.9300602203866</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" s="1">
+        <v>44890.802083333336</v>
+      </c>
+      <c r="B267" s="0">
+        <v>7753.1742996298744</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" s="1">
+        <v>44890.8125</v>
+      </c>
+      <c r="B268" s="0">
+        <v>5470.2952002944112</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" s="1">
+        <v>44890.822916666664</v>
+      </c>
+      <c r="B269" s="0">
+        <v>4393.4654364569287</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" s="1">
+        <v>44890.833333333336</v>
+      </c>
+      <c r="B270" s="0">
+        <v>8930.5081747588556</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" s="1">
+        <v>44890.84375</v>
+      </c>
+      <c r="B271" s="0">
+        <v>4493.9695477484265</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" s="1">
+        <v>44890.854166666664</v>
+      </c>
+      <c r="B272" s="0">
+        <v>3704.2943876009399</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" s="1">
+        <v>44890.864583333336</v>
+      </c>
+      <c r="B273" s="0">
+        <v>7552.1660770468779</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" s="1">
+        <v>44890.875</v>
+      </c>
+      <c r="B274" s="0">
+        <v>7336.8001242793807</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" s="1">
+        <v>44890.885416666664</v>
+      </c>
+      <c r="B275" s="0">
+        <v>6417.9053924713962</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" s="1">
+        <v>44890.895833333336</v>
+      </c>
+      <c r="B276" s="0">
+        <v>4436.5386270104282</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" s="1">
+        <v>44890.90625</v>
+      </c>
+      <c r="B277" s="0">
+        <v>11529.257338153315</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" s="1">
+        <v>44890.916666666664</v>
+      </c>
+      <c r="B278" s="0">
+        <v>5987.1734869364027</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" s="1">
+        <v>44890.927083333336</v>
+      </c>
+      <c r="B279" s="0">
+        <v>12720.948943466794</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" s="1">
+        <v>44890.9375</v>
+      </c>
+      <c r="B280" s="0">
+        <v>6159.4662491504005</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" s="1">
+        <v>44890.947916666664</v>
+      </c>
+      <c r="B281" s="0">
+        <v>7394.23104501738</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" s="1">
+        <v>44890.958333333336</v>
+      </c>
+      <c r="B282" s="0">
+        <v>2928.9769576379522</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" s="1">
+        <v>44890.96875</v>
+      </c>
+      <c r="B283" s="0">
+        <v>7020.9300602203866</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" s="1">
+        <v>44890.979166666664</v>
+      </c>
+      <c r="B284" s="0">
+        <v>8011.6134429508702</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" s="1">
+        <v>44890.989583333336</v>
+      </c>
+      <c r="B285" s="0">
+        <v>8183.9062051648671</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" s="1">
+        <v>44891</v>
+      </c>
+      <c r="B286" s="0">
+        <v>6877.3527583753894</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" s="1">
+        <v>44891.010416666664</v>
+      </c>
+      <c r="B287" s="0">
+        <v>6102.0353284124012</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" s="1">
+        <v>44891.020833333336</v>
+      </c>
+      <c r="B288" s="0">
+        <v>5958.4580265674031</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" s="1">
+        <v>44891.03125</v>
+      </c>
+      <c r="B289" s="0">
+        <v>7695.7433788918752</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" s="1">
+        <v>44891.041666666664</v>
+      </c>
+      <c r="B290" s="0">
+        <v>7150.149631880884</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" s="1">
+        <v>44891.052083333336</v>
+      </c>
+      <c r="B291" s="0">
+        <v>8298.7680466408656</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" s="1">
+        <v>44891.0625</v>
+      </c>
+      <c r="B292" s="0">
+        <v>6618.9136150543927</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" s="1">
+        <v>44891.072916666664</v>
+      </c>
+      <c r="B293" s="0">
+        <v>8499.7762692238612</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" s="1">
+        <v>44891.083333333336</v>
+      </c>
+      <c r="B294" s="0">
+        <v>6303.0435509953977</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" s="1">
+        <v>44891.09375</v>
+      </c>
+      <c r="B295" s="0">
+        <v>6403.5476622868964</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" s="1">
+        <v>44891.104166666664</v>
+      </c>
+      <c r="B296" s="0">
+        <v>8025.97117313537</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" s="1">
+        <v>44891.114583333336</v>
+      </c>
+      <c r="B297" s="0">
+        <v>9174.5895878953506</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" s="1">
+        <v>44891.125</v>
+      </c>
+      <c r="B298" s="0">
+        <v>5728.7343436154069</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" s="1">
+        <v>44891.135416666664</v>
+      </c>
+      <c r="B299" s="0">
+        <v>8614.6381106998615</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" s="1">
+        <v>44891.145833333336</v>
+      </c>
+      <c r="B300" s="0">
+        <v>9476.1019217698467</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" s="1">
+        <v>44891.15625</v>
+      </c>
+      <c r="B301" s="0">
+        <v>5527.7261210324104</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" s="1">
+        <v>44891.166666666664</v>
+      </c>
+      <c r="B302" s="0">
+        <v>7135.7919016963851</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" s="1">
+        <v>44891.177083333336</v>
+      </c>
+      <c r="B303" s="0">
+        <v>7308.084663910382</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" s="1">
+        <v>44891.1875</v>
+      </c>
+      <c r="B304" s="0">
+        <v>7523.4506166778783</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" s="1">
+        <v>44891.197916666664</v>
+      </c>
+      <c r="B305" s="0">
+        <v>6633.2713452388925</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" s="1">
+        <v>44891.208333333336</v>
+      </c>
+      <c r="B306" s="0">
+        <v>6762.4909168993909</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" s="1">
+        <v>44891.21875</v>
+      </c>
+      <c r="B307" s="0">
+        <v>7250.6537431723827</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" s="1">
+        <v>44891.229166666664</v>
+      </c>
+      <c r="B308" s="0">
+        <v>5254.9292475269149</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" s="1">
+        <v>44891.239583333336</v>
+      </c>
+      <c r="B309" s="0">
+        <v>8916.1504445743558</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" s="1">
+        <v>44891.25</v>
+      </c>
+      <c r="B310" s="0">
+        <v>7781.8897599988741</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" s="1">
+        <v>44891.260416666664</v>
+      </c>
+      <c r="B311" s="0">
+        <v>5140.0674060509173</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" s="1">
+        <v>44891.270833333336</v>
+      </c>
+      <c r="B312" s="0">
+        <v>8169.5484749803672</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" s="1">
+        <v>44891.28125</v>
+      </c>
+      <c r="B313" s="0">
+        <v>5154.4251362354171</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" s="1">
+        <v>44891.291666666664</v>
+      </c>
+      <c r="B314" s="0">
+        <v>7609.5969977848763</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" s="1">
+        <v>44891.302083333336</v>
+      </c>
+      <c r="B315" s="0">
+        <v>5843.5961850914055</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" s="1">
+        <v>44891.3125</v>
+      </c>
+      <c r="B316" s="0">
+        <v>9131.516397341853</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" s="1">
+        <v>44891.322916666664</v>
+      </c>
+      <c r="B317" s="0">
+        <v>8887.4349842053562</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" s="1">
+        <v>44891.333333333336</v>
+      </c>
+      <c r="B318" s="0">
+        <v>8399.2721579323643</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" s="1">
+        <v>44891.34375</v>
+      </c>
+      <c r="B319" s="0">
+        <v>7394.23104501738</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" s="1">
+        <v>44891.354166666664</v>
+      </c>
+      <c r="B320" s="0">
+        <v>8873.0772540208563</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" s="1">
+        <v>44891.364583333336</v>
+      </c>
+      <c r="B321" s="0">
+        <v>6346.1167415488972</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" s="1">
+        <v>44891.375</v>
+      </c>
+      <c r="B322" s="0">
+        <v>7968.5402523973708</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" s="1">
+        <v>44891.385416666664</v>
+      </c>
+      <c r="B323" s="0">
+        <v>7178.8650922498837</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" s="1">
+        <v>44891.395833333336</v>
+      </c>
+      <c r="B324" s="0">
+        <v>5743.0920737999068</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" s="1">
+        <v>44891.40625</v>
+      </c>
+      <c r="B325" s="0">
+        <v>9016.6545558658527</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" s="1">
+        <v>44891.416666666664</v>
+      </c>
+      <c r="B326" s="0">
+        <v>5513.3683908479115</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" s="1">
+        <v>44891.427083333336</v>
+      </c>
+      <c r="B327" s="0">
+        <v>7164.5073620653839</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" s="1">
+        <v>44891.4375</v>
+      </c>
+      <c r="B328" s="0">
+        <v>8772.5731427293576</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" s="1">
+        <v>44891.447916666664</v>
+      </c>
+      <c r="B329" s="0">
+        <v>8944.8659049433554</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" s="1">
+        <v>44891.458333333336</v>
+      </c>
+      <c r="B330" s="0">
+        <v>10308.850272470834</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" s="1">
+        <v>44891.46875</v>
+      </c>
+      <c r="B331" s="0">
+        <v>7810.6052203678737</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" s="1">
+        <v>44891.479166666664</v>
+      </c>
+      <c r="B332" s="0">
+        <v>10193.988430994834</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" s="1">
+        <v>44891.489583333336</v>
+      </c>
+      <c r="B333" s="0">
+        <v>7896.7516014748726</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" s="1">
+        <v>44891.5</v>
+      </c>
+      <c r="B334" s="0">
+        <v>6288.6858208108979</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" s="1">
+        <v>44891.510416666664</v>
+      </c>
+      <c r="B335" s="0">
+        <v>9878.1183669358397</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" s="1">
+        <v>44891.520833333336</v>
+      </c>
+      <c r="B336" s="0">
+        <v>12046.135624795306</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" s="1">
+        <v>44891.53125</v>
+      </c>
+      <c r="B337" s="0">
+        <v>7638.3124581538768</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" s="1">
+        <v>44891.541666666664</v>
+      </c>
+      <c r="B338" s="0">
+        <v>6733.7754565303903</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" s="1">
+        <v>44891.552083333336</v>
+      </c>
+      <c r="B339" s="0">
+        <v>7078.360980958385</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" s="1">
+        <v>44891.5625</v>
+      </c>
+      <c r="B340" s="0">
+        <v>5298.0024380804143</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" s="1">
+        <v>44891.572916666664</v>
+      </c>
+      <c r="B341" s="0">
+        <v>6259.9703604418992</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" s="1">
+        <v>44891.583333333336</v>
+      </c>
+      <c r="B342" s="0">
+        <v>6848.6372980063888</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" s="1">
+        <v>44891.59375</v>
+      </c>
+      <c r="B343" s="0">
+        <v>7609.5969977848763</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" s="1">
+        <v>44891.604166666664</v>
+      </c>
+      <c r="B344" s="0">
+        <v>8427.9876183013639</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" s="1">
+        <v>44891.614583333336</v>
+      </c>
+      <c r="B345" s="0">
+        <v>8830.0040634673569</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" s="1">
+        <v>44891.625</v>
+      </c>
+      <c r="B346" s="0">
+        <v>8011.6134429508702</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" s="1">
+        <v>44891.635416666664</v>
+      </c>
+      <c r="B347" s="0">
+        <v>7537.8083468623781</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" s="1">
+        <v>44891.645833333336</v>
+      </c>
+      <c r="B348" s="0">
+        <v>8112.117554242368</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" s="1">
+        <v>44891.65625</v>
+      </c>
+      <c r="B349" s="0">
+        <v>6575.8404245008933</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" s="1">
+        <v>44891.666666666664</v>
+      </c>
+      <c r="B350" s="0">
+        <v>2986.4078783759514</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" s="1">
+        <v>44891.677083333336</v>
+      </c>
+      <c r="B351" s="0">
+        <v>5527.7261210324104</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" s="1">
+        <v>44891.6875</v>
+      </c>
+      <c r="B352" s="0">
+        <v>7681.3856487073754</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" s="1">
+        <v>44891.697916666664</v>
+      </c>
+      <c r="B353" s="0">
+        <v>7781.8897599988741</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" s="1">
+        <v>44891.708333333336</v>
+      </c>
+      <c r="B354" s="0">
+        <v>9992.9802084118382</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" s="1">
+        <v>44891.71875</v>
+      </c>
+      <c r="B355" s="0">
+        <v>10883.159479850823</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" s="1">
+        <v>44891.729166666664</v>
+      </c>
+      <c r="B356" s="0">
+        <v>8112.117554242368</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" s="1">
+        <v>44891.739583333336</v>
+      </c>
+      <c r="B357" s="0">
+        <v>7652.6701883383757</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" s="1">
+        <v>44891.75</v>
+      </c>
+      <c r="B358" s="0">
+        <v>7035.2877904048864</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" s="1">
+        <v>44891.760416666664</v>
+      </c>
+      <c r="B359" s="0">
+        <v>9720.1833349063418</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" s="1">
+        <v>44891.770833333336</v>
+      </c>
+      <c r="B360" s="0">
+        <v>8887.4349842053562</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" s="1">
+        <v>44891.78125</v>
+      </c>
+      <c r="B361" s="0">
+        <v>5499.0106606634108</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" s="1">
+        <v>44891.791666666664</v>
+      </c>
+      <c r="B362" s="0">
+        <v>8370.5566975633647</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" s="1">
+        <v>44891.802083333336</v>
+      </c>
+      <c r="B363" s="0">
+        <v>6862.9950281908887</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" s="1">
+        <v>44891.8125</v>
+      </c>
+      <c r="B364" s="0">
+        <v>5700.0188832464073</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" s="1">
+        <v>44891.822916666664</v>
+      </c>
+      <c r="B365" s="0">
+        <v>10337.565732839834</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" s="1">
+        <v>44891.833333333336</v>
+      </c>
+      <c r="B366" s="0">
+        <v>4465.2540873794278</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" s="1">
+        <v>44891.84375</v>
+      </c>
+      <c r="B367" s="0">
+        <v>10481.14303468483</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" s="1">
+        <v>44891.854166666664</v>
+      </c>
+      <c r="B368" s="0">
+        <v>6374.8322019178959</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" s="1">
+        <v>44891.864583333336</v>
+      </c>
+      <c r="B369" s="0">
+        <v>6073.3198680434016</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" s="1">
+        <v>44891.875</v>
+      </c>
+      <c r="B370" s="0">
+        <v>9217.6627784488501</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" s="1">
+        <v>44891.885416666664</v>
+      </c>
+      <c r="B371" s="0">
+        <v>9289.451429371351</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" s="1">
+        <v>44891.895833333336</v>
+      </c>
+      <c r="B372" s="0">
+        <v>10610.362606345328</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" s="1">
+        <v>44891.90625</v>
+      </c>
+      <c r="B373" s="0">
+        <v>6805.5641074528894</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" s="1">
+        <v>44891.916666666664</v>
+      </c>
+      <c r="B374" s="0">
+        <v>6274.328090626399</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" s="1">
+        <v>44891.927083333336</v>
+      </c>
+      <c r="B375" s="0">
+        <v>11572.330528706812</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" s="1">
+        <v>44891.9375</v>
+      </c>
+      <c r="B376" s="0">
+        <v>8485.4185390393613</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" s="1">
+        <v>44891.947916666664</v>
+      </c>
+      <c r="B377" s="0">
+        <v>8930.5081747588556</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" s="1">
+        <v>44891.958333333336</v>
+      </c>
+      <c r="B378" s="0">
+        <v>8858.7195238363565</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" s="1">
+        <v>44891.96875</v>
+      </c>
+      <c r="B379" s="0">
+        <v>4278.6035949809311</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" s="1">
+        <v>44891.979166666664</v>
+      </c>
+      <c r="B380" s="0">
+        <v>8226.9793957183665</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" s="1">
+        <v>44891.989583333336</v>
+      </c>
+      <c r="B381" s="0">
+        <v>7982.8979825818706</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" s="1">
+        <v>44892</v>
+      </c>
+      <c r="B382" s="0">
+        <v>7623.954727969377</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" s="1">
+        <v>44892.010416666664</v>
+      </c>
+      <c r="B383" s="0">
+        <v>3890.944879999437</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" s="1">
+        <v>44892.020833333336</v>
+      </c>
+      <c r="B384" s="0">
+        <v>9547.8905726923458</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" s="1">
+        <v>44892.03125</v>
+      </c>
+      <c r="B385" s="0">
+        <v>6102.0353284124012</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" s="1">
+        <v>44892.041666666664</v>
+      </c>
+      <c r="B386" s="0">
+        <v>5527.7261210324104</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" s="1">
+        <v>44892.052083333336</v>
+      </c>
+      <c r="B387" s="0">
+        <v>6920.4259489288879</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" s="1">
+        <v>44892.0625</v>
+      </c>
+      <c r="B388" s="0">
+        <v>8657.7113012533591</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" s="1">
+        <v>44892.072916666664</v>
+      </c>
+      <c r="B389" s="0">
+        <v>8571.5649201463621</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" s="1">
+        <v>44892.083333333336</v>
+      </c>
+      <c r="B390" s="0">
+        <v>10093.484319703337</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" s="1">
+        <v>44892.09375</v>
+      </c>
+      <c r="B391" s="0">
+        <v>10337.565732839834</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" s="1">
+        <v>44892.104166666664</v>
+      </c>
+      <c r="B392" s="0">
+        <v>6590.1981546853931</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" s="1">
+        <v>44892.114583333336</v>
+      </c>
+      <c r="B393" s="0">
+        <v>10466.78530450033</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" s="1">
+        <v>44892.125</v>
+      </c>
+      <c r="B394" s="0">
+        <v>7178.8650922498837</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" s="1">
+        <v>44892.135416666664</v>
+      </c>
+      <c r="B395" s="0">
+        <v>2570.0337030254586</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" s="1">
+        <v>44892.145833333336</v>
+      </c>
+      <c r="B396" s="0">
+        <v>4364.7499760879291</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" s="1">
+        <v>44892.15625</v>
+      </c>
+      <c r="B397" s="0">
+        <v>8600.2803805153617</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" s="1">
+        <v>44892.166666666664</v>
+      </c>
+      <c r="B398" s="0">
+        <v>5096.9942154974169</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" s="1">
+        <v>44892.177083333336</v>
+      </c>
+      <c r="B399" s="0">
+        <v>8743.857682360358</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" s="1">
+        <v>44892.1875</v>
+      </c>
+      <c r="B400" s="0">
+        <v>8585.9226503308619</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" s="1">
+        <v>44892.197916666664</v>
+      </c>
+      <c r="B401" s="0">
+        <v>8686.4267616223588</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" s="1">
+        <v>44892.208333333336</v>
+      </c>
+      <c r="B402" s="0">
+        <v>9117.1586671573532</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" s="1">
+        <v>44892.21875</v>
+      </c>
+      <c r="B403" s="0">
+        <v>8858.7195238363565</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" s="1">
+        <v>44892.229166666664</v>
+      </c>
+      <c r="B404" s="0">
+        <v>6963.4991394823874</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" s="1">
+        <v>44892.239583333336</v>
+      </c>
+      <c r="B405" s="0">
+        <v>9892.4760971203395</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" s="1">
+        <v>44892.25</v>
+      </c>
+      <c r="B406" s="0">
+        <v>6317.4012811798975</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" s="1">
+        <v>44892.260416666664</v>
+      </c>
+      <c r="B407" s="0">
+        <v>6618.9136150543927</v>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" s="1">
+        <v>44892.270833333336</v>
+      </c>
+      <c r="B408" s="0">
+        <v>6848.6372980063888</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" s="1">
+        <v>44892.28125</v>
+      </c>
+      <c r="B409" s="0">
+        <v>5542.0838512169103</v>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" s="1">
+        <v>44892.291666666664</v>
+      </c>
+      <c r="B410" s="0">
+        <v>5728.7343436154069</v>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" s="1">
+        <v>44892.302083333336</v>
+      </c>
+      <c r="B411" s="0">
+        <v>8212.6216655338667</v>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" s="1">
+        <v>44892.3125</v>
+      </c>
+      <c r="B412" s="0">
+        <v>7135.7919016963851</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" s="1">
+        <v>44892.322916666664</v>
+      </c>
+      <c r="B413" s="0">
+        <v>7997.2557127663704</v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" s="1">
+        <v>44892.333333333336</v>
+      </c>
+      <c r="B414" s="0">
+        <v>3847.8716894459376</v>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" s="1">
+        <v>44892.34375</v>
+      </c>
+      <c r="B415" s="0">
+        <v>6604.5558848698929</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" s="1">
+        <v>44892.354166666664</v>
+      </c>
+      <c r="B416" s="0">
+        <v>9102.8009369728534</v>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" s="1">
+        <v>44892.364583333336</v>
+      </c>
+      <c r="B417" s="0">
+        <v>7925.4670618438713</v>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" s="1">
+        <v>44892.375</v>
+      </c>
+      <c r="B418" s="0">
+        <v>7767.5320298143743</v>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" s="1">
+        <v>44892.385416666664</v>
+      </c>
+      <c r="B419" s="0">
+        <v>5398.506549371913</v>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" s="1">
+        <v>44892.395833333336</v>
+      </c>
+      <c r="B420" s="0">
+        <v>7896.7516014748726</v>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" s="1">
+        <v>44892.40625</v>
+      </c>
+      <c r="B421" s="0">
+        <v>6834.279567821889</v>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" s="1">
+        <v>44892.416666666664</v>
+      </c>
+      <c r="B422" s="0">
+        <v>8959.2236351278552</v>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" s="1">
+        <v>44892.427083333336</v>
+      </c>
+      <c r="B423" s="0">
+        <v>6590.1981546853931</v>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" s="1">
+        <v>44892.4375</v>
+      </c>
+      <c r="B424" s="0">
+        <v>7466.0196959398791</v>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" s="1">
+        <v>44892.447916666664</v>
+      </c>
+      <c r="B425" s="0">
+        <v>8557.2071899618622</v>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" s="1">
+        <v>44892.458333333336</v>
+      </c>
+      <c r="B426" s="0">
+        <v>6805.5641074528894</v>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" s="1">
+        <v>44892.46875</v>
+      </c>
+      <c r="B427" s="0">
+        <v>8198.2639353493669</v>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" s="1">
+        <v>44892.479166666664</v>
+      </c>
+      <c r="B428" s="0">
+        <v>9275.0936991868493</v>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" s="1">
+        <v>44892.489583333336</v>
+      </c>
+      <c r="B429" s="0">
+        <v>8270.0525862718659</v>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" s="1">
+        <v>44892.5</v>
+      </c>
+      <c r="B430" s="0">
+        <v>10423.712113946831</v>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" s="1">
+        <v>44892.510416666664</v>
+      </c>
+      <c r="B431" s="0">
+        <v>6317.4012811798975</v>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" s="1">
+        <v>44892.520833333336</v>
+      </c>
+      <c r="B432" s="0">
+        <v>9045.3700162348541</v>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" s="1">
+        <v>44892.53125</v>
+      </c>
+      <c r="B433" s="0">
+        <v>7738.8165694453737</v>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" s="1">
+        <v>44892.541666666664</v>
+      </c>
+      <c r="B434" s="0">
+        <v>6676.344535792392</v>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" s="1">
+        <v>44892.552083333336</v>
+      </c>
+      <c r="B435" s="0">
+        <v>4149.3840233204328</v>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" s="1">
+        <v>44892.5625</v>
+      </c>
+      <c r="B436" s="0">
+        <v>7121.4341715118853</v>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" s="1">
+        <v>44892.572916666664</v>
+      </c>
+      <c r="B437" s="0">
+        <v>8169.5484749803672</v>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" s="1">
+        <v>44892.583333333336</v>
+      </c>
+      <c r="B438" s="0">
+        <v>6518.4095037628949</v>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" s="1">
+        <v>44892.59375</v>
+      </c>
+      <c r="B439" s="0">
+        <v>5039.5632947594186</v>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" s="1">
+        <v>44892.604166666664</v>
+      </c>
+      <c r="B440" s="0">
+        <v>6733.7754565303903</v>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" s="1">
+        <v>44892.614583333336</v>
+      </c>
+      <c r="B441" s="0">
+        <v>7150.149631880884</v>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" s="1">
+        <v>44892.625</v>
+      </c>
+      <c r="B442" s="0">
+        <v>6489.6940433938944</v>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" s="1">
+        <v>44892.635416666664</v>
+      </c>
+      <c r="B443" s="0">
+        <v>4608.831389224425</v>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" s="1">
+        <v>44892.645833333336</v>
+      </c>
+      <c r="B444" s="0">
+        <v>6877.3527583753894</v>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" s="1">
+        <v>44892.65625</v>
+      </c>
+      <c r="B445" s="0">
+        <v>5298.0024380804143</v>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" s="1">
+        <v>44892.666666666664</v>
+      </c>
+      <c r="B446" s="0">
+        <v>5757.4498039844066</v>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" s="1">
+        <v>44892.677083333336</v>
+      </c>
+      <c r="B447" s="0">
+        <v>8025.97117313537</v>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" s="1">
+        <v>44892.6875</v>
+      </c>
+      <c r="B448" s="0">
+        <v>5944.1002963829033</v>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" s="1">
+        <v>44892.697916666664</v>
+      </c>
+      <c r="B449" s="0">
+        <v>7566.5238072313768</v>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" s="1">
+        <v>44892.708333333336</v>
+      </c>
+      <c r="B450" s="0">
+        <v>6058.9621378589018</v>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" s="1">
+        <v>44892.71875</v>
+      </c>
+      <c r="B451" s="0">
+        <v>7566.5238072313768</v>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" s="1">
+        <v>44892.729166666664</v>
+      </c>
+      <c r="B452" s="0">
+        <v>6030.2466774899021</v>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" s="1">
+        <v>44892.739583333336</v>
+      </c>
+      <c r="B453" s="0">
+        <v>7623.954727969377</v>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" s="1">
+        <v>44892.75</v>
+      </c>
+      <c r="B454" s="0">
+        <v>4321.6767855344297</v>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" s="1">
+        <v>44892.760416666664</v>
+      </c>
+      <c r="B455" s="0">
+        <v>3474.5707046489438</v>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" s="1">
+        <v>44892.770833333336</v>
+      </c>
+      <c r="B456" s="0">
+        <v>5757.4498039844066</v>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" s="1">
+        <v>44892.78125</v>
+      </c>
+      <c r="B457" s="0">
+        <v>7753.1742996298744</v>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" s="1">
+        <v>44892.791666666664</v>
+      </c>
+      <c r="B458" s="0">
+        <v>6504.0517735783951</v>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" s="1">
+        <v>44892.802083333336</v>
+      </c>
+      <c r="B459" s="0">
+        <v>10581.647145976329</v>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" s="1">
+        <v>44892.8125</v>
+      </c>
+      <c r="B460" s="0">
+        <v>8944.8659049433554</v>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" s="1">
+        <v>44892.822916666664</v>
+      </c>
+      <c r="B461" s="0">
+        <v>7954.1825222128709</v>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" s="1">
+        <v>44892.833333333336</v>
+      </c>
+      <c r="B462" s="0">
+        <v>6331.7590113643973</v>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" s="1">
+        <v>44892.84375</v>
+      </c>
+      <c r="B463" s="0">
+        <v>6245.6126302573985</v>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" s="1">
+        <v>44892.854166666664</v>
+      </c>
+      <c r="B464" s="0">
+        <v>8370.5566975633647</v>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" s="1">
+        <v>44892.864583333336</v>
+      </c>
+      <c r="B465" s="0">
+        <v>6992.2145998513861</v>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" s="1">
+        <v>44892.875</v>
+      </c>
+      <c r="B466" s="0">
+        <v>3388.4243235419453</v>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" s="1">
+        <v>44892.885416666664</v>
+      </c>
+      <c r="B467" s="0">
+        <v>9160.2318577108508</v>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" s="1">
+        <v>44892.895833333336</v>
+      </c>
+      <c r="B468" s="0">
+        <v>7207.5805526188833</v>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" s="1">
+        <v>44892.90625</v>
+      </c>
+      <c r="B469" s="0">
+        <v>6202.539439703899</v>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" s="1">
+        <v>44892.916666666664</v>
+      </c>
+      <c r="B470" s="0">
+        <v>9375.597810478348</v>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" s="1">
+        <v>44892.927083333336</v>
+      </c>
+      <c r="B471" s="0">
+        <v>4192.4572138739322</v>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" s="1">
+        <v>44892.9375</v>
+      </c>
+      <c r="B472" s="0">
+        <v>10954.948130773322</v>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" s="1">
+        <v>44892.947916666664</v>
+      </c>
+      <c r="B473" s="0">
+        <v>7997.2557127663704</v>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" s="1">
+        <v>44892.958333333336</v>
+      </c>
+      <c r="B474" s="0">
+        <v>10868.801749666323</v>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" s="1">
+        <v>44892.96875</v>
+      </c>
+      <c r="B475" s="0">
+        <v>9461.7441915853469</v>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" s="1">
+        <v>44892.979166666664</v>
+      </c>
+      <c r="B476" s="0">
+        <v>9318.1668897403488</v>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" s="1">
+        <v>44892.989583333336</v>
+      </c>
+      <c r="B477" s="0">
+        <v>5197.4983267889156</v>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" s="1">
+        <v>44893</v>
+      </c>
+      <c r="B478" s="0">
+        <v>9921.1915574893392</v>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" s="1">
+        <v>44893.010416666664</v>
+      </c>
+      <c r="B479" s="0">
+        <v>7178.8650922498837</v>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" s="1">
+        <v>44893.020833333336</v>
+      </c>
+      <c r="B480" s="0">
+        <v>3230.4892915124474</v>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" s="1">
+        <v>44893.03125</v>
+      </c>
+      <c r="B481" s="0">
+        <v>6346.1167415488972</v>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" s="1">
+        <v>44893.041666666664</v>
+      </c>
+      <c r="B482" s="0">
+        <v>9188.9473180798504</v>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" s="1">
+        <v>44893.052083333336</v>
+      </c>
+      <c r="B483" s="0">
+        <v>7178.8650922498837</v>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" s="1">
+        <v>44893.0625</v>
+      </c>
+      <c r="B484" s="0">
+        <v>4881.6282627299206</v>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" s="1">
+        <v>44893.072916666664</v>
+      </c>
+      <c r="B485" s="0">
+        <v>5039.5632947594186</v>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" s="1">
+        <v>44893.083333333336</v>
+      </c>
+      <c r="B486" s="0">
+        <v>4292.9613251654309</v>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" s="1">
+        <v>44893.09375</v>
+      </c>
+      <c r="B487" s="0">
+        <v>5384.1488191874123</v>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" s="1">
+        <v>44893.104166666664</v>
+      </c>
+      <c r="B488" s="0">
+        <v>5786.1652643534062</v>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" s="1">
+        <v>44893.114583333336</v>
+      </c>
+      <c r="B489" s="0">
+        <v>5499.0106606634108</v>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" s="1">
+        <v>44893.125</v>
+      </c>
+      <c r="B490" s="0">
+        <v>5700.0188832464073</v>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" s="1">
+        <v>44893.135416666664</v>
+      </c>
+      <c r="B491" s="0">
+        <v>7078.360980958385</v>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" s="1">
+        <v>44893.145833333336</v>
+      </c>
+      <c r="B492" s="0">
+        <v>7293.7269337258822</v>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" s="1">
+        <v>44893.15625</v>
+      </c>
+      <c r="B493" s="0">
+        <v>6173.8239793349003</v>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" s="1">
+        <v>44893.166666666664</v>
+      </c>
+      <c r="B494" s="0">
+        <v>7494.7351563088787</v>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" s="1">
+        <v>44893.177083333336</v>
+      </c>
+      <c r="B495" s="0">
+        <v>5039.5632947594186</v>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" s="1">
+        <v>44893.1875</v>
+      </c>
+      <c r="B496" s="0">
+        <v>5743.0920737999068</v>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" s="1">
+        <v>44893.197916666664</v>
+      </c>
+      <c r="B497" s="0">
+        <v>9648.3946839838445</v>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" s="1">
+        <v>44893.208333333336</v>
+      </c>
+      <c r="B498" s="0">
+        <v>7552.1660770468779</v>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" s="1">
+        <v>44893.21875</v>
+      </c>
+      <c r="B499" s="0">
+        <v>6906.0682187443881</v>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" s="1">
+        <v>44893.229166666664</v>
+      </c>
+      <c r="B500" s="0">
+        <v>5728.7343436154069</v>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" s="1">
+        <v>44893.239583333336</v>
+      </c>
+      <c r="B501" s="0">
+        <v>7480.377426124378</v>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" s="1">
+        <v>44893.25</v>
+      </c>
+      <c r="B502" s="0">
+        <v>5341.0756286339138</v>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" s="1">
+        <v>44893.260416666664</v>
+      </c>
+      <c r="B503" s="0">
+        <v>6331.7590113643973</v>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" s="1">
+        <v>44893.270833333336</v>
+      </c>
+      <c r="B504" s="0">
+        <v>9605.3214934303451</v>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" s="1">
+        <v>44893.28125</v>
+      </c>
+      <c r="B505" s="0">
+        <v>6877.3527583753894</v>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" s="1">
+        <v>44893.291666666664</v>
+      </c>
+      <c r="B506" s="0">
+        <v>7997.2557127663704</v>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" s="1">
+        <v>44893.302083333336</v>
+      </c>
+      <c r="B507" s="0">
+        <v>9088.4432067883536</v>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" s="1">
+        <v>44893.3125</v>
+      </c>
+      <c r="B508" s="0">
+        <v>9763.2565254598412</v>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" s="1">
+        <v>44893.322916666664</v>
+      </c>
+      <c r="B509" s="0">
+        <v>5384.1488191874123</v>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" s="1">
+        <v>44893.333333333336</v>
+      </c>
+      <c r="B510" s="0">
+        <v>7020.9300602203866</v>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" s="1">
+        <v>44893.34375</v>
+      </c>
+      <c r="B511" s="0">
+        <v>6661.9868056078922</v>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" s="1">
+        <v>44893.354166666664</v>
+      </c>
+      <c r="B512" s="0">
+        <v>5656.9456926929088</v>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" s="1">
+        <v>44893.364583333336</v>
+      </c>
+      <c r="B513" s="0">
+        <v>7480.377426124378</v>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" s="1">
+        <v>44893.375</v>
+      </c>
+      <c r="B514" s="0">
+        <v>6977.8568696668863</v>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" s="1">
+        <v>44893.385416666664</v>
+      </c>
+      <c r="B515" s="0">
+        <v>6891.7104885598883</v>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" s="1">
+        <v>44893.395833333336</v>
+      </c>
+      <c r="B516" s="0">
+        <v>10079.126589518837</v>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" s="1">
+        <v>44893.40625</v>
+      </c>
+      <c r="B517" s="0">
+        <v>10036.053398965338</v>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" s="1">
+        <v>44893.416666666664</v>
+      </c>
+      <c r="B518" s="0">
+        <v>7954.1825222128709</v>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" s="1">
+        <v>44893.427083333336</v>
+      </c>
+      <c r="B519" s="0">
+        <v>7638.3124581538768</v>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" s="1">
+        <v>44893.4375</v>
+      </c>
+      <c r="B520" s="0">
+        <v>8657.7113012533591</v>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" s="1">
+        <v>44893.447916666664</v>
+      </c>
+      <c r="B521" s="0">
+        <v>6906.0682187443881</v>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" s="1">
+        <v>44893.458333333336</v>
+      </c>
+      <c r="B522" s="0">
+        <v>10380.638923393331</v>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" s="1">
+        <v>44893.46875</v>
+      </c>
+      <c r="B523" s="0">
+        <v>7781.8897599988741</v>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" s="1">
+        <v>44893.479166666664</v>
+      </c>
+      <c r="B524" s="0">
+        <v>7767.5320298143743</v>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" s="1">
+        <v>44893.489583333336</v>
+      </c>
+      <c r="B525" s="0">
+        <v>7523.4506166778783</v>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" s="1">
+        <v>44893.5</v>
+      </c>
+      <c r="B526" s="0">
+        <v>6073.3198680434016</v>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" s="1">
+        <v>44893.510416666664</v>
+      </c>
+      <c r="B527" s="0">
+        <v>6848.6372980063888</v>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" s="1">
+        <v>44893.520833333336</v>
+      </c>
+      <c r="B528" s="0">
+        <v>6561.4826943163935</v>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" s="1">
+        <v>44893.53125</v>
+      </c>
+      <c r="B529" s="0">
+        <v>7379.8733148328811</v>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" s="1">
+        <v>44893.541666666664</v>
+      </c>
+      <c r="B530" s="0">
+        <v>7135.7919016963851</v>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" s="1">
+        <v>44893.552083333336</v>
+      </c>
+      <c r="B531" s="0">
+        <v>4493.9695477484265</v>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" s="1">
+        <v>44893.5625</v>
+      </c>
+      <c r="B532" s="0">
+        <v>8585.9226503308619</v>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" s="1">
+        <v>44893.572916666664</v>
+      </c>
+      <c r="B533" s="0">
+        <v>6389.1899321023966</v>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" s="1">
+        <v>44893.583333333336</v>
+      </c>
+      <c r="B534" s="0">
+        <v>7394.23104501738</v>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" s="1">
+        <v>44893.59375</v>
+      </c>
+      <c r="B535" s="0">
+        <v>6475.3363132093946</v>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" s="1">
+        <v>44893.604166666664</v>
+      </c>
+      <c r="B536" s="0">
+        <v>7006.5723300358868</v>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" s="1">
+        <v>44893.614583333336</v>
+      </c>
+      <c r="B537" s="0">
+        <v>7193.2228224343835</v>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" s="1">
+        <v>44893.625</v>
+      </c>
+      <c r="B538" s="0">
+        <v>8255.6948560873661</v>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" s="1">
+        <v>44893.635416666664</v>
+      </c>
+      <c r="B539" s="0">
+        <v>7164.5073620653839</v>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" s="1">
+        <v>44893.645833333336</v>
+      </c>
+      <c r="B540" s="0">
+        <v>8241.3371259028663</v>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" s="1">
+        <v>44893.65625</v>
+      </c>
+      <c r="B541" s="0">
+        <v>10409.354383762331</v>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" s="1">
+        <v>44893.666666666664</v>
+      </c>
+      <c r="B542" s="0">
+        <v>8557.2071899618622</v>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" s="1">
+        <v>44893.677083333336</v>
+      </c>
+      <c r="B543" s="0">
+        <v>4838.5550721764212</v>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" s="1">
+        <v>44893.6875</v>
+      </c>
+      <c r="B544" s="0">
+        <v>7178.8650922498837</v>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" s="1">
+        <v>44893.697916666664</v>
+      </c>
+      <c r="B545" s="0">
+        <v>6317.4012811798975</v>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" s="1">
+        <v>44893.708333333336</v>
+      </c>
+      <c r="B546" s="0">
+        <v>10251.419351732833</v>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" s="1">
+        <v>44893.71875</v>
+      </c>
+      <c r="B547" s="0">
+        <v>12275.859307747302</v>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" s="1">
+        <v>44893.729166666664</v>
+      </c>
+      <c r="B548" s="0">
+        <v>5728.7343436154069</v>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" s="1">
+        <v>44893.739583333336</v>
+      </c>
+      <c r="B549" s="0">
+        <v>8370.5566975633647</v>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" s="1">
+        <v>44893.75</v>
+      </c>
+      <c r="B550" s="0">
+        <v>9346.8823501093484</v>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551" s="1">
+        <v>44893.760416666664</v>
+      </c>
+      <c r="B551" s="0">
+        <v>6834.279567821889</v>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" s="1">
+        <v>44893.770833333336</v>
+      </c>
+      <c r="B552" s="0">
+        <v>8083.4020938733684</v>
+      </c>
+    </row>
+    <row r="553">
+      <c r="A553" s="1">
+        <v>44893.78125</v>
+      </c>
+      <c r="B553" s="0">
+        <v>4048.8799120289341</v>
+      </c>
+    </row>
+    <row r="554">
+      <c r="A554" s="1">
+        <v>44893.791666666664</v>
+      </c>
+      <c r="B554" s="0">
+        <v>9433.0287312163473</v>
+      </c>
+    </row>
+    <row r="555">
+      <c r="A555" s="1">
+        <v>44893.802083333336</v>
+      </c>
+      <c r="B555" s="0">
+        <v>5025.2055645749188</v>
+      </c>
+    </row>
+    <row r="556">
+      <c r="A556" s="1">
+        <v>44893.8125</v>
+      </c>
+      <c r="B556" s="0">
+        <v>3876.5871498149372</v>
+      </c>
+    </row>
+    <row r="557">
+      <c r="A557" s="1">
+        <v>44893.822916666664</v>
+      </c>
+      <c r="B557" s="0">
+        <v>9031.0122860503525</v>
+      </c>
+    </row>
+    <row r="558">
+      <c r="A558" s="1">
+        <v>44893.833333333336</v>
+      </c>
+      <c r="B558" s="0">
+        <v>9748.8987952753414</v>
+      </c>
+    </row>
+    <row r="559">
+      <c r="A559" s="1">
+        <v>44893.84375</v>
+      </c>
+      <c r="B559" s="0">
+        <v>5556.4415814014101</v>
+      </c>
+    </row>
+    <row r="560">
+      <c r="A560" s="1">
+        <v>44893.854166666664</v>
+      </c>
+      <c r="B560" s="0">
+        <v>9260.7359690023495</v>
+      </c>
+    </row>
+    <row r="561">
+      <c r="A561" s="1">
+        <v>44893.864583333336</v>
+      </c>
+      <c r="B561" s="0">
+        <v>6690.7022659768918</v>
+      </c>
+    </row>
+    <row r="562">
+      <c r="A562" s="1">
+        <v>44893.875</v>
+      </c>
+      <c r="B562" s="0">
+        <v>8614.6381106998615</v>
+      </c>
+    </row>
+    <row r="563">
+      <c r="A563" s="1">
+        <v>44893.885416666664</v>
+      </c>
+      <c r="B563" s="0">
+        <v>9849.4029065668401</v>
+      </c>
+    </row>
+    <row r="564">
+      <c r="A564" s="1">
+        <v>44893.895833333336</v>
+      </c>
+      <c r="B564" s="0">
+        <v>4364.7499760879291</v>
+      </c>
+    </row>
+    <row r="565">
+      <c r="A565" s="1">
+        <v>44893.90625</v>
+      </c>
+      <c r="B565" s="0">
+        <v>7997.2557127663704</v>
+      </c>
+    </row>
+    <row r="566">
+      <c r="A566" s="1">
+        <v>44893.916666666664</v>
+      </c>
+      <c r="B566" s="0">
+        <v>6403.5476622868964</v>
+      </c>
+    </row>
+    <row r="567">
+      <c r="A567" s="1">
+        <v>44893.927083333336</v>
+      </c>
+      <c r="B567" s="0">
+        <v>5599.5147719549086</v>
+      </c>
+    </row>
+    <row r="568">
+      <c r="A568" s="1">
+        <v>44893.9375</v>
+      </c>
+      <c r="B568" s="0">
+        <v>8427.9876183013639</v>
+      </c>
+    </row>
+    <row r="569">
+      <c r="A569" s="1">
+        <v>44893.947916666664</v>
+      </c>
+      <c r="B569" s="0">
+        <v>10136.557510256836</v>
+      </c>
+    </row>
+    <row r="570">
+      <c r="A570" s="1">
+        <v>44893.958333333336</v>
+      </c>
+      <c r="B570" s="0">
+        <v>6590.1981546853931</v>
+      </c>
+    </row>
+    <row r="571">
+      <c r="A571" s="1">
+        <v>44893.96875</v>
+      </c>
+      <c r="B571" s="0">
+        <v>8485.4185390393613</v>
+      </c>
+    </row>
+    <row r="572">
+      <c r="A572" s="1">
+        <v>44893.979166666664</v>
+      </c>
+      <c r="B572" s="0">
+        <v>5499.0106606634108</v>
+      </c>
+    </row>
+    <row r="573">
+      <c r="A573" s="1">
+        <v>44893.989583333336</v>
+      </c>
+      <c r="B573" s="0">
+        <v>8356.1989673788648</v>
+      </c>
+    </row>
+    <row r="574">
+      <c r="A574" s="1">
+        <v>44894</v>
+      </c>
+      <c r="B574" s="0">
+        <v>9490.4596519543447</v>
+      </c>
+    </row>
+    <row r="575">
+      <c r="A575" s="1">
+        <v>44894.010416666664</v>
+      </c>
+      <c r="B575" s="0">
+        <v>9346.8823501093484</v>
+      </c>
+    </row>
+    <row r="576">
+      <c r="A576" s="1">
+        <v>44894.020833333336</v>
+      </c>
+      <c r="B576" s="0">
+        <v>8959.2236351278552</v>
+      </c>
+    </row>
+    <row r="577">
+      <c r="A577" s="1">
+        <v>44894.03125</v>
+      </c>
+      <c r="B577" s="0">
+        <v>9878.1183669358397</v>
+      </c>
+    </row>
+    <row r="578">
+      <c r="A578" s="1">
+        <v>44894.041666666664</v>
+      </c>
+      <c r="B578" s="0">
+        <v>8873.0772540208563</v>
+      </c>
+    </row>
+    <row r="579">
+      <c r="A579" s="1">
+        <v>44894.052083333336</v>
+      </c>
+      <c r="B579" s="0">
+        <v>4321.6767855344297</v>
+      </c>
+    </row>
+    <row r="580">
+      <c r="A580" s="1">
+        <v>44894.0625</v>
+      </c>
+      <c r="B580" s="0">
+        <v>7250.6537431723827</v>
+      </c>
+    </row>
+    <row r="581">
+      <c r="A581" s="1">
+        <v>44894.072916666664</v>
+      </c>
+      <c r="B581" s="0">
+        <v>4450.896357194928</v>
+      </c>
+    </row>
+    <row r="582">
+      <c r="A582" s="1">
+        <v>44894.083333333336</v>
+      </c>
+      <c r="B582" s="0">
+        <v>6504.0517735783951</v>
+      </c>
+    </row>
+    <row r="583">
+      <c r="A583" s="1">
+        <v>44894.09375</v>
+      </c>
+      <c r="B583" s="0">
+        <v>6303.0435509953977</v>
+      </c>
+    </row>
+    <row r="584">
+      <c r="A584" s="1">
+        <v>44894.104166666664</v>
+      </c>
+      <c r="B584" s="0">
+        <v>5599.5147719549086</v>
+      </c>
+    </row>
+    <row r="585">
+      <c r="A585" s="1">
+        <v>44894.114583333336</v>
+      </c>
+      <c r="B585" s="0">
+        <v>7107.0764413273846</v>
+      </c>
+    </row>
+    <row r="586">
+      <c r="A586" s="1">
+        <v>44894.125</v>
+      </c>
+      <c r="B586" s="0">
+        <v>8901.792714389856</v>
+      </c>
+    </row>
+    <row r="587">
+      <c r="A587" s="1">
+        <v>44894.135416666664</v>
+      </c>
+      <c r="B587" s="0">
+        <v>5613.8725021394084</v>
+      </c>
+    </row>
+    <row r="588">
+      <c r="A588" s="1">
+        <v>44894.145833333336</v>
+      </c>
+      <c r="B588" s="0">
+        <v>9433.0287312163473</v>
+      </c>
+    </row>
+    <row r="589">
+      <c r="A589" s="1">
+        <v>44894.15625</v>
+      </c>
+      <c r="B589" s="0">
+        <v>3431.4975140954443</v>
+      </c>
+    </row>
+    <row r="590">
+      <c r="A590" s="1">
+        <v>44894.166666666664</v>
+      </c>
+      <c r="B590" s="0">
+        <v>4852.912802360921</v>
+      </c>
+    </row>
+    <row r="591">
+      <c r="A591" s="1">
+        <v>44894.177083333336</v>
+      </c>
+      <c r="B591" s="0">
+        <v>7193.2228224343835</v>
+      </c>
+    </row>
+    <row r="592">
+      <c r="A592" s="1">
+        <v>44894.1875</v>
+      </c>
+      <c r="B592" s="0">
+        <v>7494.7351563088787</v>
+      </c>
+    </row>
+    <row r="593">
+      <c r="A593" s="1">
+        <v>44894.197916666664</v>
+      </c>
+      <c r="B593" s="0">
+        <v>6834.279567821889</v>
+      </c>
+    </row>
+    <row r="594">
+      <c r="A594" s="1">
+        <v>44894.208333333336</v>
+      </c>
+      <c r="B594" s="0">
+        <v>3776.083038523439</v>
+      </c>
+    </row>
+    <row r="595">
+      <c r="A595" s="1">
+        <v>44894.21875</v>
+      </c>
+      <c r="B595" s="0">
+        <v>4838.5550721764212</v>
+      </c>
+    </row>
+    <row r="596">
+      <c r="A596" s="1">
+        <v>44894.229166666664</v>
+      </c>
+      <c r="B596" s="0">
+        <v>7853.6784109213722</v>
+      </c>
+    </row>
+    <row r="597">
+      <c r="A597" s="1">
+        <v>44894.239583333336</v>
+      </c>
+      <c r="B597" s="0">
+        <v>7480.377426124378</v>
+      </c>
+    </row>
+    <row r="598">
+      <c r="A598" s="1">
+        <v>44894.25</v>
+      </c>
+      <c r="B598" s="0">
+        <v>8901.792714389856</v>
+      </c>
+    </row>
+    <row r="599">
+      <c r="A599" s="1">
+        <v>44894.260416666664</v>
+      </c>
+      <c r="B599" s="0">
+        <v>7293.7269337258822</v>
+      </c>
+    </row>
+    <row r="600">
+      <c r="A600" s="1">
+        <v>44894.270833333336</v>
+      </c>
+      <c r="B600" s="0">
+        <v>5369.7910890029125</v>
+      </c>
+    </row>
+    <row r="601">
+      <c r="A601" s="1">
+        <v>44894.28125</v>
+      </c>
+      <c r="B601" s="0">
+        <v>7767.5320298143743</v>
+      </c>
+    </row>
+    <row r="602">
+      <c r="A602" s="1">
+        <v>44894.291666666664</v>
+      </c>
+      <c r="B602" s="0">
+        <v>4580.1159288554254</v>
+      </c>
+    </row>
+    <row r="603">
+      <c r="A603" s="1">
+        <v>44894.302083333336</v>
+      </c>
+      <c r="B603" s="0">
+        <v>6303.0435509953977</v>
+      </c>
+    </row>
+    <row r="604">
+      <c r="A604" s="1">
+        <v>44894.3125</v>
+      </c>
+      <c r="B604" s="0">
+        <v>5929.7425661984043</v>
+      </c>
+    </row>
+    <row r="605">
+      <c r="A605" s="1">
+        <v>44894.322916666664</v>
+      </c>
+      <c r="B605" s="0">
+        <v>9246.3782388178497</v>
+      </c>
+    </row>
+    <row r="606">
+      <c r="A606" s="1">
+        <v>44894.333333333336</v>
+      </c>
+      <c r="B606" s="0">
+        <v>6044.604407674402</v>
+      </c>
+    </row>
+    <row r="607">
+      <c r="A607" s="1">
+        <v>44894.34375</v>
+      </c>
+      <c r="B607" s="0">
+        <v>6963.4991394823874</v>
+      </c>
+    </row>
+    <row r="608">
+      <c r="A608" s="1">
+        <v>44894.354166666664</v>
+      </c>
+      <c r="B608" s="0">
+        <v>8514.133999408361</v>
+      </c>
+    </row>
+    <row r="609">
+      <c r="A609" s="1">
+        <v>44894.364583333336</v>
+      </c>
+      <c r="B609" s="0">
+        <v>8758.2154125448578</v>
+      </c>
+    </row>
+    <row r="610">
+      <c r="A610" s="1">
+        <v>44894.375</v>
+      </c>
+      <c r="B610" s="0">
+        <v>9117.1586671573532</v>
+      </c>
+    </row>
+    <row r="611">
+      <c r="A611" s="1">
+        <v>44894.385416666664</v>
+      </c>
+      <c r="B611" s="0">
+        <v>7623.954727969377</v>
+      </c>
+    </row>
+    <row r="612">
+      <c r="A612" s="1">
+        <v>44894.395833333336</v>
+      </c>
+      <c r="B612" s="0">
+        <v>6044.604407674402</v>
+      </c>
+    </row>
+    <row r="613">
+      <c r="A613" s="1">
+        <v>44894.40625</v>
+      </c>
+      <c r="B613" s="0">
+        <v>5111.3519456819167</v>
+      </c>
+    </row>
+    <row r="614">
+      <c r="A614" s="1">
+        <v>44894.416666666664</v>
+      </c>
+      <c r="B614" s="0">
+        <v>5039.5632947594186</v>
+      </c>
+    </row>
+    <row r="615">
+      <c r="A615" s="1">
+        <v>44894.427083333336</v>
+      </c>
+      <c r="B615" s="0">
+        <v>6360.474471733397</v>
+      </c>
+    </row>
+    <row r="616">
+      <c r="A616" s="1">
+        <v>44894.4375</v>
+      </c>
+      <c r="B616" s="0">
+        <v>8887.4349842053562</v>
+      </c>
+    </row>
+    <row r="617">
+      <c r="A617" s="1">
+        <v>44894.447916666664</v>
+      </c>
+      <c r="B617" s="0">
+        <v>7107.0764413273846</v>
+      </c>
+    </row>
+    <row r="618">
+      <c r="A618" s="1">
+        <v>44894.458333333336</v>
+      </c>
+      <c r="B618" s="0">
+        <v>5341.0756286339138</v>
+      </c>
+    </row>
+    <row r="619">
+      <c r="A619" s="1">
+        <v>44894.46875</v>
+      </c>
+      <c r="B619" s="0">
+        <v>9275.0936991868493</v>
+      </c>
+    </row>
+    <row r="620">
+      <c r="A620" s="1">
+        <v>44894.479166666664</v>
+      </c>
+      <c r="B620" s="0">
+        <v>2857.1883067154536</v>
+      </c>
+    </row>
+    <row r="621">
+      <c r="A621" s="1">
+        <v>44894.489583333336</v>
+      </c>
+      <c r="B621" s="0">
+        <v>6733.7754565303903</v>
+      </c>
+    </row>
+    <row r="622">
+      <c r="A622" s="1">
+        <v>44894.5</v>
+      </c>
+      <c r="B622" s="0">
+        <v>6547.1249641318936</v>
+      </c>
+    </row>
+    <row r="623">
+      <c r="A623" s="1">
+        <v>44894.510416666664</v>
+      </c>
+      <c r="B623" s="0">
+        <v>9490.4596519543447</v>
+      </c>
+    </row>
+    <row r="624">
+      <c r="A624" s="1">
+        <v>44894.520833333336</v>
+      </c>
+      <c r="B624" s="0">
+        <v>5570.7993115859099</v>
+      </c>
+    </row>
+    <row r="625">
+      <c r="A625" s="1">
+        <v>44894.53125</v>
+      </c>
+      <c r="B625" s="0">
+        <v>9433.0287312163473</v>
+      </c>
+    </row>
+    <row r="626">
+      <c r="A626" s="1">
+        <v>44894.541666666664</v>
+      </c>
+      <c r="B626" s="0">
+        <v>9318.1668897403488</v>
+      </c>
+    </row>
+    <row r="627">
+      <c r="A627" s="1">
+        <v>44894.552083333336</v>
+      </c>
+      <c r="B627" s="0">
+        <v>3819.1562290769384</v>
+      </c>
+    </row>
+    <row r="628">
+      <c r="A628" s="1">
+        <v>44894.5625</v>
+      </c>
+      <c r="B628" s="0">
+        <v>6159.4662491504005</v>
+      </c>
+    </row>
+    <row r="629">
+      <c r="A629" s="1">
+        <v>44894.572916666664</v>
+      </c>
+      <c r="B629" s="0">
+        <v>7724.4588392608748</v>
+      </c>
+    </row>
+    <row r="630">
+      <c r="A630" s="1">
+        <v>44894.583333333336</v>
+      </c>
+      <c r="B630" s="0">
+        <v>6432.263122655896</v>
+      </c>
+    </row>
+    <row r="631">
+      <c r="A631" s="1">
+        <v>44894.59375</v>
+      </c>
+      <c r="B631" s="0">
+        <v>7982.8979825818706</v>
+      </c>
+    </row>
+    <row r="632">
+      <c r="A632" s="1">
+        <v>44894.604166666664</v>
+      </c>
+      <c r="B632" s="0">
+        <v>7250.6537431723827</v>
+      </c>
+    </row>
+    <row r="633">
+      <c r="A633" s="1">
+        <v>44894.614583333336</v>
+      </c>
+      <c r="B633" s="0">
+        <v>8944.8659049433554</v>
+      </c>
+    </row>
+    <row r="634">
+      <c r="A634" s="1">
+        <v>44894.625</v>
+      </c>
+      <c r="B634" s="0">
+        <v>5671.3034228774086</v>
+      </c>
+    </row>
+    <row r="635">
+      <c r="A635" s="1">
+        <v>44894.635416666664</v>
+      </c>
+      <c r="B635" s="0">
+        <v>7178.8650922498837</v>
+      </c>
+    </row>
+    <row r="636">
+      <c r="A636" s="1">
+        <v>44894.645833333336</v>
+      </c>
+      <c r="B636" s="0">
+        <v>5613.8725021394084</v>
+      </c>
+    </row>
+    <row r="637">
+      <c r="A637" s="1">
+        <v>44894.65625</v>
+      </c>
+      <c r="B637" s="0">
+        <v>4537.0427383019269</v>
+      </c>
+    </row>
+    <row r="638">
+      <c r="A638" s="1">
+        <v>44894.666666666664</v>
+      </c>
+      <c r="B638" s="0">
+        <v>7853.6784109213722</v>
+      </c>
+    </row>
+    <row r="639">
+      <c r="A639" s="1">
+        <v>44894.677083333336</v>
+      </c>
+      <c r="B639" s="0">
+        <v>5211.8560569734154</v>
+      </c>
+    </row>
+    <row r="640">
+      <c r="A640" s="1">
+        <v>44894.6875</v>
+      </c>
+      <c r="B640" s="0">
+        <v>9389.9555406628479</v>
+      </c>
+    </row>
+    <row r="641">
+      <c r="A641" s="1">
+        <v>44894.697916666664</v>
+      </c>
+      <c r="B641" s="0">
+        <v>6374.8322019178959</v>
+      </c>
+    </row>
+    <row r="642">
+      <c r="A642" s="1">
+        <v>44894.708333333336</v>
+      </c>
+      <c r="B642" s="0">
+        <v>5857.9539152759044</v>
+      </c>
+    </row>
+    <row r="643">
+      <c r="A643" s="1">
+        <v>44894.71875</v>
+      </c>
+      <c r="B643" s="0">
+        <v>4809.8396118074224</v>
+      </c>
+    </row>
+    <row r="644">
+      <c r="A644" s="1">
+        <v>44894.729166666664</v>
+      </c>
+      <c r="B644" s="0">
+        <v>7394.23104501738</v>
+      </c>
+    </row>
+    <row r="645">
+      <c r="A645" s="1">
+        <v>44894.739583333336</v>
+      </c>
+      <c r="B645" s="0">
+        <v>9619.6792236148449</v>
+      </c>
+    </row>
+    <row r="646">
+      <c r="A646" s="1">
+        <v>44894.75</v>
+      </c>
+      <c r="B646" s="0">
+        <v>5096.9942154974169</v>
+      </c>
+    </row>
+    <row r="647">
+      <c r="A647" s="1">
+        <v>44894.760416666664</v>
+      </c>
+      <c r="B647" s="0">
+        <v>7695.7433788918752</v>
+      </c>
+    </row>
+    <row r="648">
+      <c r="A648" s="1">
+        <v>44894.770833333336</v>
+      </c>
+      <c r="B648" s="0">
+        <v>7437.3042355708794</v>
+      </c>
+    </row>
+    <row r="649">
+      <c r="A649" s="1">
+        <v>44894.78125</v>
+      </c>
+      <c r="B649" s="0">
+        <v>6834.279567821889</v>
+      </c>
+    </row>
+    <row r="650">
+      <c r="A650" s="1">
+        <v>44894.791666666664</v>
+      </c>
+      <c r="B650" s="0">
+        <v>4379.1077062724289</v>
+      </c>
+    </row>
+    <row r="651">
+      <c r="A651" s="1">
+        <v>44894.802083333336</v>
+      </c>
+      <c r="B651" s="0">
+        <v>8183.9062051648671</v>
+      </c>
+    </row>
+    <row r="652">
+      <c r="A652" s="1">
+        <v>44894.8125</v>
+      </c>
+      <c r="B652" s="0">
+        <v>8298.7680466408656</v>
+      </c>
+    </row>
+    <row r="653">
+      <c r="A653" s="1">
+        <v>44894.822916666664</v>
+      </c>
+      <c r="B653" s="0">
+        <v>6216.8971698883988</v>
+      </c>
+    </row>
+    <row r="654">
+      <c r="A654" s="1">
+        <v>44894.833333333336</v>
+      </c>
+      <c r="B654" s="0">
+        <v>6877.3527583753894</v>
+      </c>
+    </row>
+    <row r="655">
+      <c r="A655" s="1">
+        <v>44894.84375</v>
+      </c>
+      <c r="B655" s="0">
+        <v>6116.3930585969001</v>
+      </c>
+    </row>
+    <row r="656">
+      <c r="A656" s="1">
+        <v>44894.854166666664</v>
+      </c>
+      <c r="B656" s="0">
+        <v>7623.954727969377</v>
+      </c>
+    </row>
+    <row r="657">
+      <c r="A657" s="1">
+        <v>44894.864583333336</v>
+      </c>
+      <c r="B657" s="0">
+        <v>7796.2474901833739</v>
+      </c>
+    </row>
+    <row r="658">
+      <c r="A658" s="1">
+        <v>44894.875</v>
+      </c>
+      <c r="B658" s="0">
+        <v>5599.5147719549086</v>
+      </c>
+    </row>
+    <row r="659">
+      <c r="A659" s="1">
+        <v>44894.885416666664</v>
+      </c>
+      <c r="B659" s="0">
+        <v>7566.5238072313768</v>
+      </c>
+    </row>
+    <row r="660">
+      <c r="A660" s="1">
+        <v>44894.895833333336</v>
+      </c>
+      <c r="B660" s="0">
+        <v>6963.4991394823874</v>
+      </c>
+    </row>
+    <row r="661">
+      <c r="A661" s="1">
+        <v>44894.90625</v>
+      </c>
+      <c r="B661" s="0">
+        <v>8844.3617936518567</v>
+      </c>
+    </row>
+    <row r="662">
+      <c r="A662" s="1">
+        <v>44894.916666666664</v>
+      </c>
+      <c r="B662" s="0">
+        <v>6633.2713452388925</v>
+      </c>
+    </row>
+    <row r="663">
+      <c r="A663" s="1">
+        <v>44894.927083333336</v>
+      </c>
+      <c r="B663" s="0">
+        <v>8571.5649201463621</v>
+      </c>
+    </row>
+    <row r="664">
+      <c r="A664" s="1">
+        <v>44894.9375</v>
+      </c>
+      <c r="B664" s="0">
+        <v>6044.604407674402</v>
+      </c>
+    </row>
+    <row r="665">
+      <c r="A665" s="1">
+        <v>44894.947916666664</v>
+      </c>
+      <c r="B665" s="0">
+        <v>6130.7507887813999</v>
+      </c>
+    </row>
+    <row r="666">
+      <c r="A666" s="1">
+        <v>44894.958333333336</v>
+      </c>
+      <c r="B666" s="0">
+        <v>6087.6775982279014</v>
+      </c>
+    </row>
+    <row r="667">
+      <c r="A667" s="1">
+        <v>44894.96875</v>
+      </c>
+      <c r="B667" s="0">
+        <v>7667.0279185228756</v>
+      </c>
+    </row>
+    <row r="668">
+      <c r="A668" s="1">
+        <v>44894.979166666664</v>
+      </c>
+      <c r="B668" s="0">
+        <v>8901.792714389856</v>
+      </c>
+    </row>
+    <row r="669">
+      <c r="A669" s="1">
+        <v>44894.989583333336</v>
+      </c>
+      <c r="B669" s="0">
+        <v>6992.2145998513861</v>
+      </c>
+    </row>
+    <row r="670">
+      <c r="A670" s="1">
+        <v>44895</v>
+      </c>
+      <c r="B670" s="0">
+        <v>7437.3042355708794</v>
+      </c>
+    </row>
+    <row r="671">
+      <c r="A671" s="1">
+        <v>44895.010416666664</v>
+      </c>
+      <c r="B671" s="0">
+        <v>7020.9300602203866</v>
+      </c>
+    </row>
+    <row r="672">
+      <c r="A672" s="1">
+        <v>44895.020833333336</v>
+      </c>
+      <c r="B672" s="0">
+        <v>6159.4662491504005</v>
+      </c>
+    </row>
+    <row r="673">
+      <c r="A673" s="1">
+        <v>44895.03125</v>
+      </c>
+      <c r="B673" s="0">
+        <v>8270.0525862718659</v>
+      </c>
+    </row>
+    <row r="674">
+      <c r="A674" s="1">
+        <v>44895.041666666664</v>
+      </c>
+      <c r="B674" s="0">
+        <v>7509.0928864933785</v>
+      </c>
+    </row>
+    <row r="675">
+      <c r="A675" s="1">
+        <v>44895.052083333336</v>
+      </c>
+      <c r="B675" s="0">
+        <v>7911.1093316593715</v>
+      </c>
+    </row>
+    <row r="676">
+      <c r="A676" s="1">
+        <v>44895.0625</v>
+      </c>
+      <c r="B676" s="0">
+        <v>4493.9695477484265</v>
+      </c>
+    </row>
+    <row r="677">
+      <c r="A677" s="1">
+        <v>44895.072916666664</v>
+      </c>
+      <c r="B677" s="0">
+        <v>7997.2557127663704</v>
+      </c>
+    </row>
+    <row r="678">
+      <c r="A678" s="1">
+        <v>44895.083333333336</v>
+      </c>
+      <c r="B678" s="0">
+        <v>6590.1981546853931</v>
+      </c>
+    </row>
+    <row r="679">
+      <c r="A679" s="1">
+        <v>44895.09375</v>
+      </c>
+      <c r="B679" s="0">
+        <v>6575.8404245008933</v>
+      </c>
+    </row>
+    <row r="680">
+      <c r="A680" s="1">
+        <v>44895.104166666664</v>
+      </c>
+      <c r="B680" s="0">
+        <v>8327.4835070098652</v>
+      </c>
+    </row>
+    <row r="681">
+      <c r="A681" s="1">
+        <v>44895.114583333336</v>
+      </c>
+      <c r="B681" s="0">
+        <v>8097.7598240578682</v>
+      </c>
+    </row>
+    <row r="682">
+      <c r="A682" s="1">
+        <v>44895.125</v>
+      </c>
+      <c r="B682" s="0">
+        <v>10610.362606345328</v>
+      </c>
+    </row>
+    <row r="683">
+      <c r="A683" s="1">
+        <v>44895.135416666664</v>
+      </c>
+      <c r="B683" s="0">
+        <v>8600.2803805153617</v>
+      </c>
+    </row>
+    <row r="684">
+      <c r="A684" s="1">
+        <v>44895.145833333336</v>
+      </c>
+      <c r="B684" s="0">
+        <v>6417.9053924713962</v>
+      </c>
+    </row>
+    <row r="685">
+      <c r="A685" s="1">
+        <v>44895.15625</v>
+      </c>
+      <c r="B685" s="0">
+        <v>5111.3519456819167</v>
+      </c>
+    </row>
+    <row r="686">
+      <c r="A686" s="1">
+        <v>44895.166666666664</v>
+      </c>
+      <c r="B686" s="0">
+        <v>9303.8091595558508</v>
+      </c>
+    </row>
+    <row r="687">
+      <c r="A687" s="1">
+        <v>44895.177083333336</v>
+      </c>
+      <c r="B687" s="0">
+        <v>6073.3198680434016</v>
+      </c>
+    </row>
+    <row r="688">
+      <c r="A688" s="1">
+        <v>44895.1875</v>
+      </c>
+      <c r="B688" s="0">
+        <v>4422.1808968259284</v>
+      </c>
+    </row>
+    <row r="689">
+      <c r="A689" s="1">
+        <v>44895.197916666664</v>
+      </c>
+      <c r="B689" s="0">
+        <v>8844.3617936518567</v>
+      </c>
+    </row>
+    <row r="690">
+      <c r="A690" s="1">
+        <v>44895.208333333336</v>
+      </c>
+      <c r="B690" s="0">
+        <v>5470.2952002944112</v>
+      </c>
+    </row>
+    <row r="691">
+      <c r="A691" s="1">
+        <v>44895.21875</v>
+      </c>
+      <c r="B691" s="0">
+        <v>5211.8560569734154</v>
+      </c>
+    </row>
+    <row r="692">
+      <c r="A692" s="1">
+        <v>44895.229166666664</v>
+      </c>
+      <c r="B692" s="0">
+        <v>7035.2877904048864</v>
+      </c>
+    </row>
+    <row r="693">
+      <c r="A693" s="1">
+        <v>44895.239583333336</v>
+      </c>
+      <c r="B693" s="0">
+        <v>7652.6701883383757</v>
+      </c>
+    </row>
+    <row r="694">
+      <c r="A694" s="1">
+        <v>44895.25</v>
+      </c>
+      <c r="B694" s="0">
+        <v>9662.7524141683425</v>
+      </c>
+    </row>
+    <row r="695">
+      <c r="A695" s="1">
+        <v>44895.260416666664</v>
+      </c>
+      <c r="B695" s="0">
+        <v>6202.539439703899</v>
+      </c>
+    </row>
+    <row r="696">
+      <c r="A696" s="1">
+        <v>44895.270833333336</v>
+      </c>
+      <c r="B696" s="0">
+        <v>4235.5304044274308</v>
+      </c>
+    </row>
+    <row r="697">
+      <c r="A697" s="1">
+        <v>44895.28125</v>
+      </c>
+      <c r="B697" s="0">
+        <v>6647.6290754233924</v>
+      </c>
+    </row>
+    <row r="698">
+      <c r="A698" s="1">
+        <v>44895.291666666664</v>
+      </c>
+      <c r="B698" s="0">
+        <v>9318.1668897403488</v>
+      </c>
+    </row>
+    <row r="699">
+      <c r="A699" s="1">
+        <v>44895.302083333336</v>
+      </c>
+      <c r="B699" s="0">
+        <v>5398.506549371913</v>
+      </c>
+    </row>
+    <row r="700">
+      <c r="A700" s="1">
+        <v>44895.3125</v>
+      </c>
+      <c r="B700" s="0">
+        <v>7968.5402523973708</v>
+      </c>
+    </row>
+    <row r="701">
+      <c r="A701" s="1">
+        <v>44895.322916666664</v>
+      </c>
+      <c r="B701" s="0">
+        <v>6547.1249641318936</v>
+      </c>
+    </row>
+    <row r="702">
+      <c r="A702" s="1">
+        <v>44895.333333333336</v>
+      </c>
+      <c r="B702" s="0">
+        <v>7078.360980958385</v>
+      </c>
+    </row>
+    <row r="703">
+      <c r="A703" s="1">
+        <v>44895.34375</v>
+      </c>
+      <c r="B703" s="0">
+        <v>6992.2145998513861</v>
+      </c>
+    </row>
+    <row r="704">
+      <c r="A704" s="1">
+        <v>44895.354166666664</v>
+      </c>
+      <c r="B704" s="0">
+        <v>6891.7104885598883</v>
+      </c>
+    </row>
+    <row r="705">
+      <c r="A705" s="1">
+        <v>44895.364583333336</v>
+      </c>
+      <c r="B705" s="0">
+        <v>6877.3527583753894</v>
+      </c>
+    </row>
+    <row r="706">
+      <c r="A706" s="1">
+        <v>44895.375</v>
+      </c>
+      <c r="B706" s="0">
+        <v>4709.3355005159237</v>
+      </c>
+    </row>
+    <row r="707">
+      <c r="A707" s="1">
+        <v>44895.385416666664</v>
+      </c>
+      <c r="B707" s="0">
+        <v>5685.6611530619075</v>
+      </c>
+    </row>
+    <row r="708">
+      <c r="A708" s="1">
+        <v>44895.395833333336</v>
+      </c>
+      <c r="B708" s="0">
+        <v>7810.6052203678737</v>
+      </c>
+    </row>
+    <row r="709">
+      <c r="A709" s="1">
+        <v>44895.40625</v>
+      </c>
+      <c r="B709" s="0">
+        <v>7207.5805526188833</v>
+      </c>
+    </row>
+    <row r="710">
+      <c r="A710" s="1">
+        <v>44895.416666666664</v>
+      </c>
+      <c r="B710" s="0">
+        <v>5685.6611530619075</v>
+      </c>
+    </row>
+    <row r="711">
+      <c r="A711" s="1">
+        <v>44895.427083333336</v>
+      </c>
+      <c r="B711" s="0">
+        <v>8155.1907447958683</v>
+      </c>
+    </row>
+    <row r="712">
+      <c r="A712" s="1">
+        <v>44895.4375</v>
+      </c>
+      <c r="B712" s="0">
+        <v>5700.0188832464073</v>
+      </c>
+    </row>
+    <row r="713">
+      <c r="A713" s="1">
+        <v>44895.447916666664</v>
+      </c>
+      <c r="B713" s="0">
+        <v>4106.3108327669333</v>
+      </c>
+    </row>
+    <row r="714">
+      <c r="A714" s="1">
+        <v>44895.458333333336</v>
+      </c>
+      <c r="B714" s="0">
+        <v>6906.0682187443881</v>
+      </c>
+    </row>
+    <row r="715">
+      <c r="A715" s="1">
+        <v>44895.46875</v>
+      </c>
+      <c r="B715" s="0">
+        <v>6705.0599961613916</v>
+      </c>
+    </row>
+    <row r="716">
+      <c r="A716" s="1">
+        <v>44895.479166666664</v>
+      </c>
+      <c r="B716" s="0">
+        <v>9461.7441915853469</v>
+      </c>
+    </row>
+    <row r="717">
+      <c r="A717" s="1">
+        <v>44895.489583333336</v>
+      </c>
+      <c r="B717" s="0">
+        <v>9906.8338273048394</v>
+      </c>
+    </row>
+    <row r="718">
+      <c r="A718" s="1">
+        <v>44895.5</v>
+      </c>
+      <c r="B718" s="0">
+        <v>9763.2565254598412</v>
+      </c>
+    </row>
+    <row r="719">
+      <c r="A719" s="1">
+        <v>44895.510416666664</v>
+      </c>
+      <c r="B719" s="0">
+        <v>7135.7919016963851</v>
+      </c>
+    </row>
+    <row r="720">
+      <c r="A720" s="1">
+        <v>44895.520833333336</v>
+      </c>
+      <c r="B720" s="0">
+        <v>5111.3519456819167</v>
+      </c>
+    </row>
+    <row r="721">
+      <c r="A721" s="1">
+        <v>44895.53125</v>
+      </c>
+      <c r="B721" s="0">
+        <v>6791.2063772683905</v>
+      </c>
+    </row>
+    <row r="722">
+      <c r="A722" s="1">
+        <v>44895.541666666664</v>
+      </c>
+      <c r="B722" s="0">
+        <v>9375.597810478348</v>
+      </c>
+    </row>
+    <row r="723">
+      <c r="A723" s="1">
+        <v>44895.552083333336</v>
+      </c>
+      <c r="B723" s="0">
+        <v>6489.6940433938944</v>
+      </c>
+    </row>
+    <row r="724">
+      <c r="A724" s="1">
+        <v>44895.5625</v>
+      </c>
+      <c r="B724" s="0">
+        <v>8183.9062051648671</v>
+      </c>
+    </row>
+    <row r="725">
+      <c r="A725" s="1">
+        <v>44895.572916666664</v>
+      </c>
+      <c r="B725" s="0">
+        <v>7193.2228224343835</v>
+      </c>
+    </row>
+    <row r="726">
+      <c r="A726" s="1">
+        <v>44895.583333333336</v>
+      </c>
+      <c r="B726" s="0">
+        <v>6446.6208528403959</v>
+      </c>
+    </row>
+    <row r="727">
+      <c r="A727" s="1">
+        <v>44895.59375</v>
+      </c>
+      <c r="B727" s="0">
+        <v>7322.4423940948809</v>
+      </c>
+    </row>
+    <row r="728">
+      <c r="A728" s="1">
+        <v>44895.604166666664</v>
+      </c>
+      <c r="B728" s="0">
+        <v>1363.9843675274778</v>
+      </c>
+    </row>
+    <row r="729">
+      <c r="A729" s="1">
+        <v>44895.614583333336</v>
+      </c>
+      <c r="B729" s="0">
+        <v>6303.0435509953977</v>
+      </c>
+    </row>
+    <row r="730">
+      <c r="A730" s="1">
+        <v>44895.625</v>
+      </c>
+      <c r="B730" s="0">
+        <v>6705.0599961613916</v>
+      </c>
+    </row>
+    <row r="731">
+      <c r="A731" s="1">
+        <v>44895.635416666664</v>
+      </c>
+      <c r="B731" s="0">
+        <v>2871.5460368999534</v>
+      </c>
+    </row>
+    <row r="732">
+      <c r="A732" s="1">
+        <v>44895.645833333336</v>
+      </c>
+      <c r="B732" s="0">
+        <v>6633.2713452388925</v>
+      </c>
+    </row>
+    <row r="733">
+      <c r="A733" s="1">
+        <v>44895.65625</v>
+      </c>
+      <c r="B733" s="0">
+        <v>10064.768859334337</v>
+      </c>
+    </row>
+    <row r="734">
+      <c r="A734" s="1">
+        <v>44895.666666666664</v>
+      </c>
+      <c r="B734" s="0">
+        <v>5412.8642795564128</v>
+      </c>
+    </row>
+    <row r="735">
+      <c r="A735" s="1">
+        <v>44895.677083333336</v>
+      </c>
+      <c r="B735" s="0">
+        <v>4608.831389224425</v>
+      </c>
+    </row>
+    <row r="736">
+      <c r="A736" s="1">
+        <v>44895.6875</v>
+      </c>
+      <c r="B736" s="0">
+        <v>8987.939095496853</v>
+      </c>
+    </row>
+    <row r="737">
+      <c r="A737" s="1">
+        <v>44895.697916666664</v>
+      </c>
+      <c r="B737" s="0">
+        <v>5685.6611530619075</v>
+      </c>
+    </row>
+    <row r="738">
+      <c r="A738" s="1">
+        <v>44895.708333333336</v>
+      </c>
+      <c r="B738" s="0">
+        <v>5513.3683908479115</v>
+      </c>
+    </row>
+    <row r="739">
+      <c r="A739" s="1">
+        <v>44895.71875</v>
+      </c>
+      <c r="B739" s="0">
+        <v>4336.0345157189295</v>
+      </c>
+    </row>
+    <row r="740">
+      <c r="A740" s="1">
+        <v>44895.729166666664</v>
+      </c>
+      <c r="B740" s="0">
+        <v>7695.7433788918752</v>
+      </c>
+    </row>
+    <row r="741">
+      <c r="A741" s="1">
+        <v>44895.739583333336</v>
+      </c>
+      <c r="B741" s="0">
+        <v>5513.3683908479115</v>
+      </c>
+    </row>
+    <row r="742">
+      <c r="A742" s="1">
+        <v>44895.75</v>
+      </c>
+      <c r="B742" s="0">
+        <v>8097.7598240578682</v>
+      </c>
+    </row>
+    <row r="743">
+      <c r="A743" s="1">
+        <v>44895.760416666664</v>
+      </c>
+      <c r="B743" s="0">
+        <v>7853.6784109213722</v>
+      </c>
+    </row>
+    <row r="744">
+      <c r="A744" s="1">
+        <v>44895.770833333336</v>
+      </c>
+      <c r="B744" s="0">
+        <v>6776.8486470838907</v>
+      </c>
+    </row>
+    <row r="745">
+      <c r="A745" s="1">
+        <v>44895.78125</v>
+      </c>
+      <c r="B745" s="0">
+        <v>8485.4185390393613</v>
+      </c>
+    </row>
+    <row r="746">
+      <c r="A746" s="1">
+        <v>44895.791666666664</v>
+      </c>
+      <c r="B746" s="0">
+        <v>7781.8897599988741</v>
+      </c>
+    </row>
+    <row r="747">
+      <c r="A747" s="1">
+        <v>44895.802083333336</v>
+      </c>
+      <c r="B747" s="0">
+        <v>7365.5155846483804</v>
+      </c>
+    </row>
+    <row r="748">
+      <c r="A748" s="1">
+        <v>44895.8125</v>
+      </c>
+      <c r="B748" s="0">
+        <v>7738.8165694453737</v>
+      </c>
+    </row>
+    <row r="749">
+      <c r="A749" s="1">
+        <v>44895.822916666664</v>
+      </c>
+      <c r="B749" s="0">
+        <v>7710.101109076375</v>
+      </c>
+    </row>
+    <row r="750">
+      <c r="A750" s="1">
+        <v>44895.833333333336</v>
+      </c>
+      <c r="B750" s="0">
+        <v>11012.379051511321</v>
+      </c>
+    </row>
+    <row r="751">
+      <c r="A751" s="1">
+        <v>44895.84375</v>
+      </c>
+      <c r="B751" s="0">
+        <v>6949.1414092978875</v>
+      </c>
+    </row>
+    <row r="752">
+      <c r="A752" s="1">
+        <v>44895.854166666664</v>
+      </c>
+      <c r="B752" s="0">
+        <v>6977.8568696668863</v>
+      </c>
+    </row>
+    <row r="753">
+      <c r="A753" s="1">
+        <v>44895.864583333336</v>
+      </c>
+      <c r="B753" s="0">
+        <v>4034.5221818444347</v>
+      </c>
+    </row>
+    <row r="754">
+      <c r="A754" s="1">
+        <v>44895.875</v>
+      </c>
+      <c r="B754" s="0">
+        <v>9016.6545558658527</v>
+      </c>
+    </row>
+    <row r="755">
+      <c r="A755" s="1">
+        <v>44895.885416666664</v>
+      </c>
+      <c r="B755" s="0">
+        <v>9433.0287312163473</v>
+      </c>
+    </row>
+    <row r="756">
+      <c r="A756" s="1">
+        <v>44895.895833333336</v>
+      </c>
+      <c r="B756" s="0">
+        <v>5829.2384549069056</v>
+      </c>
+    </row>
+    <row r="757">
+      <c r="A757" s="1">
+        <v>44895.90625</v>
+      </c>
+      <c r="B757" s="0">
+        <v>9763.2565254598412</v>
+      </c>
+    </row>
+    <row r="758">
+      <c r="A758" s="1">
+        <v>44895.916666666664</v>
+      </c>
+      <c r="B758" s="0">
+        <v>8442.3453484858637</v>
+      </c>
+    </row>
+    <row r="759">
+      <c r="A759" s="1">
+        <v>44895.927083333336</v>
+      </c>
+      <c r="B759" s="0">
+        <v>7509.0928864933785</v>
+      </c>
+    </row>
+    <row r="760">
+      <c r="A760" s="1">
+        <v>44895.9375</v>
+      </c>
+      <c r="B760" s="0">
+        <v>7623.954727969377</v>
+      </c>
+    </row>
+    <row r="761">
+      <c r="A761" s="1">
+        <v>44895.947916666664</v>
+      </c>
+      <c r="B761" s="0">
+        <v>9835.0451763823403</v>
+      </c>
+    </row>
+    <row r="762">
+      <c r="A762" s="1">
+        <v>44895.958333333336</v>
+      </c>
+      <c r="B762" s="0">
+        <v>5886.6693756449049</v>
+      </c>
+    </row>
+    <row r="763">
+      <c r="A763" s="1">
+        <v>44895.96875</v>
+      </c>
+      <c r="B763" s="0">
+        <v>8628.9958408843613</v>
+      </c>
+    </row>
+    <row r="764">
+      <c r="A764" s="1">
+        <v>44895.979166666664</v>
+      </c>
+      <c r="B764" s="0">
+        <v>10007.337938596336</v>
+      </c>
+    </row>
+    <row r="765">
+      <c r="A765" s="1">
+        <v>44895.989583333336</v>
+      </c>
+      <c r="B765" s="0">
+        <v>7997.2557127663704</v>
+      </c>
+    </row>
+    <row r="766">
+      <c r="A766" s="1">
+        <v>44896</v>
+      </c>
+      <c r="B766" s="0">
+        <v>7164.5073620653839</v>
+      </c>
+    </row>
+    <row r="767">
+      <c r="A767" s="1">
+        <v>44896.010416666664</v>
+      </c>
+      <c r="B767" s="0">
+        <v>9059.7277464193539</v>
+      </c>
+    </row>
+    <row r="768">
+      <c r="A768" s="1">
+        <v>44896.020833333336</v>
+      </c>
+      <c r="B768" s="0">
+        <v>5843.5961850914055</v>
+      </c>
+    </row>
+    <row r="769">
+      <c r="A769" s="1">
+        <v>44896.03125</v>
+      </c>
+      <c r="B769" s="0">
+        <v>7982.8979825818706</v>
+      </c>
+    </row>
+    <row r="770">
+      <c r="A770" s="1">
+        <v>44896.041666666664</v>
+      </c>
+      <c r="B770" s="0">
+        <v>5901.0271058294047</v>
+      </c>
+    </row>
+    <row r="771">
+      <c r="A771" s="1">
+        <v>44896.052083333336</v>
+      </c>
+      <c r="B771" s="0">
+        <v>5613.8725021394084</v>
+      </c>
+    </row>
+    <row r="772">
+      <c r="A772" s="1">
+        <v>44896.0625</v>
+      </c>
+      <c r="B772" s="0">
+        <v>6087.6775982279014</v>
+      </c>
+    </row>
+    <row r="773">
+      <c r="A773" s="1">
+        <v>44896.072916666664</v>
+      </c>
+      <c r="B773" s="0">
+        <v>3733.0098479699395</v>
+      </c>
+    </row>
+    <row r="774">
+      <c r="A774" s="1">
+        <v>44896.083333333336</v>
+      </c>
+      <c r="B774" s="0">
+        <v>7236.296012987882</v>
+      </c>
+    </row>
+    <row r="775">
+      <c r="A775" s="1">
+        <v>44896.09375</v>
+      </c>
+      <c r="B775" s="0">
+        <v>7049.6455205893863</v>
+      </c>
+    </row>
+    <row r="776">
+      <c r="A776" s="1">
+        <v>44896.104166666664</v>
+      </c>
+      <c r="B776" s="0">
+        <v>5872.3116454604042</v>
+      </c>
+    </row>
+    <row r="777">
+      <c r="A777" s="1">
+        <v>44896.114583333336</v>
+      </c>
+      <c r="B777" s="0">
+        <v>4781.1241514384228</v>
+      </c>
+    </row>
+    <row r="778">
+      <c r="A778" s="1">
+        <v>44896.125</v>
+      </c>
+      <c r="B778" s="0">
+        <v>7781.8897599988741</v>
+      </c>
+    </row>
+    <row r="779">
+      <c r="A779" s="1">
+        <v>44896.135416666664</v>
+      </c>
+      <c r="B779" s="0">
+        <v>7868.036141105873</v>
+      </c>
+    </row>
+    <row r="780">
+      <c r="A780" s="1">
+        <v>44896.145833333336</v>
+      </c>
+      <c r="B780" s="0">
+        <v>6374.8322019178959</v>
+      </c>
+    </row>
+    <row r="781">
+      <c r="A781" s="1">
+        <v>44896.15625</v>
+      </c>
+      <c r="B781" s="0">
+        <v>6360.474471733397</v>
+      </c>
+    </row>
+    <row r="782">
+      <c r="A782" s="1">
+        <v>44896.166666666664</v>
+      </c>
+      <c r="B782" s="0">
+        <v>7753.1742996298744</v>
+      </c>
+    </row>
+    <row r="783">
+      <c r="A783" s="1">
+        <v>44896.177083333336</v>
+      </c>
+      <c r="B783" s="0">
+        <v>5527.7261210324104</v>
+      </c>
+    </row>
+    <row r="784">
+      <c r="A784" s="1">
+        <v>44896.1875</v>
+      </c>
+      <c r="B784" s="0">
+        <v>7595.2392676003765</v>
+      </c>
+    </row>
+    <row r="785">
+      <c r="A785" s="1">
+        <v>44896.197916666664</v>
+      </c>
+      <c r="B785" s="0">
+        <v>8557.2071899618622</v>
+      </c>
+    </row>
+    <row r="786">
+      <c r="A786" s="1">
+        <v>44896.208333333336</v>
+      </c>
+      <c r="B786" s="0">
+        <v>7308.084663910382</v>
+      </c>
+    </row>
+    <row r="787">
+      <c r="A787" s="1">
+        <v>44896.21875</v>
+      </c>
+      <c r="B787" s="0">
+        <v>8471.0608088548615</v>
+      </c>
+    </row>
+    <row r="788">
+      <c r="A788" s="1">
+        <v>44896.229166666664</v>
+      </c>
+      <c r="B788" s="0">
+        <v>5814.8807247224058</v>
+      </c>
+    </row>
+    <row r="789">
+      <c r="A789" s="1">
+        <v>44896.239583333336</v>
+      </c>
+      <c r="B789" s="0">
+        <v>7049.6455205893863</v>
+      </c>
+    </row>
+    <row r="790">
+      <c r="A790" s="1">
+        <v>44896.25</v>
+      </c>
+      <c r="B790" s="0">
+        <v>8341.841237194365</v>
+      </c>
+    </row>
+    <row r="791">
+      <c r="A791" s="1">
+        <v>44896.260416666664</v>
+      </c>
+      <c r="B791" s="0">
+        <v>7379.8733148328811</v>
+      </c>
+    </row>
+    <row r="792">
+      <c r="A792" s="1">
+        <v>44896.270833333336</v>
+      </c>
+      <c r="B792" s="0">
+        <v>7853.6784109213722</v>
+      </c>
+    </row>
+    <row r="793">
+      <c r="A793" s="1">
+        <v>44896.28125</v>
+      </c>
+      <c r="B793" s="0">
+        <v>8226.9793957183665</v>
+      </c>
+    </row>
+    <row r="794">
+      <c r="A794" s="1">
+        <v>44896.291666666664</v>
+      </c>
+      <c r="B794" s="0">
+        <v>7523.4506166778783</v>
+      </c>
+    </row>
+    <row r="795">
+      <c r="A795" s="1">
+        <v>44896.302083333336</v>
+      </c>
+      <c r="B795" s="0">
+        <v>7968.5402523973708</v>
+      </c>
+    </row>
+    <row r="796">
+      <c r="A796" s="1">
+        <v>44896.3125</v>
+      </c>
+      <c r="B796" s="0">
+        <v>5743.0920737999068</v>
+      </c>
+    </row>
+    <row r="797">
+      <c r="A797" s="1">
+        <v>44896.322916666664</v>
+      </c>
+      <c r="B797" s="0">
+        <v>2785.3996557929549</v>
+      </c>
+    </row>
+    <row r="798">
+      <c r="A798" s="1">
+        <v>44896.333333333336</v>
+      </c>
+      <c r="B798" s="0">
+        <v>9031.0122860503525</v>
+      </c>
+    </row>
+    <row r="799">
+      <c r="A799" s="1">
+        <v>44896.34375</v>
+      </c>
+      <c r="B799" s="0">
+        <v>4939.0591834679199</v>
+      </c>
+    </row>
+    <row r="800">
+      <c r="A800" s="1">
+        <v>44896.354166666664</v>
+      </c>
+      <c r="B800" s="0">
+        <v>3790.4407687079383</v>
+      </c>
+    </row>
+    <row r="801">
+      <c r="A801" s="1">
+        <v>44896.364583333336</v>
+      </c>
+      <c r="B801" s="0">
+        <v>6145.1085189659007</v>
+      </c>
+    </row>
+    <row r="802">
+      <c r="A802" s="1">
+        <v>44896.375</v>
+      </c>
+      <c r="B802" s="0">
+        <v>8528.4917295928608</v>
+      </c>
+    </row>
+    <row r="803">
+      <c r="A803" s="1">
+        <v>44896.385416666664</v>
+      </c>
+      <c r="B803" s="0">
+        <v>8212.6216655338667</v>
+      </c>
+    </row>
+    <row r="804">
+      <c r="A804" s="1">
+        <v>44896.395833333336</v>
+      </c>
+      <c r="B804" s="0">
+        <v>7365.5155846483804</v>
+      </c>
+    </row>
+    <row r="805">
+      <c r="A805" s="1">
+        <v>44896.40625</v>
+      </c>
+      <c r="B805" s="0">
+        <v>4795.4818816229226</v>
+      </c>
+    </row>
+    <row r="806">
+      <c r="A806" s="1">
+        <v>44896.416666666664</v>
+      </c>
+      <c r="B806" s="0">
+        <v>9418.6710010318475</v>
+      </c>
+    </row>
+    <row r="807">
+      <c r="A807" s="1">
+        <v>44896.427083333336</v>
+      </c>
+      <c r="B807" s="0">
+        <v>10538.573955422829</v>
+      </c>
+    </row>
+    <row r="808">
+      <c r="A808" s="1">
+        <v>44896.4375</v>
+      </c>
+      <c r="B808" s="0">
+        <v>6417.9053924713962</v>
+      </c>
+    </row>
+    <row r="809">
+      <c r="A809" s="1">
+        <v>44896.447916666664</v>
+      </c>
+      <c r="B809" s="0">
+        <v>7451.6619657553792</v>
+      </c>
+    </row>
+    <row r="810">
+      <c r="A810" s="1">
+        <v>44896.458333333336</v>
+      </c>
+      <c r="B810" s="0">
+        <v>6733.7754565303903</v>
+      </c>
+    </row>
+    <row r="811">
+      <c r="A811" s="1">
+        <v>44896.46875</v>
+      </c>
+      <c r="B811" s="0">
+        <v>3187.4161009589479</v>
+      </c>
+    </row>
+    <row r="812">
+      <c r="A812" s="1">
+        <v>44896.479166666664</v>
+      </c>
+      <c r="B812" s="0">
+        <v>6733.7754565303903</v>
+      </c>
+    </row>
+    <row r="813">
+      <c r="A813" s="1">
+        <v>44896.489583333336</v>
+      </c>
+      <c r="B813" s="0">
+        <v>6015.8889473054032</v>
+      </c>
+    </row>
+    <row r="814">
+      <c r="A814" s="1">
+        <v>44896.5</v>
+      </c>
+      <c r="B814" s="0">
+        <v>8743.857682360358</v>
+      </c>
+    </row>
+    <row r="815">
+      <c r="A815" s="1">
+        <v>44896.510416666664</v>
+      </c>
+      <c r="B815" s="0">
+        <v>6719.4177263458905</v>
+      </c>
+    </row>
+    <row r="816">
+      <c r="A816" s="1">
+        <v>44896.520833333336</v>
+      </c>
+      <c r="B816" s="0">
+        <v>5254.9292475269149</v>
+      </c>
+    </row>
+    <row r="817">
+      <c r="A817" s="1">
+        <v>44896.53125</v>
+      </c>
+      <c r="B817" s="0">
+        <v>6130.7507887813999</v>
+      </c>
+    </row>
+    <row r="818">
+      <c r="A818" s="1">
+        <v>44896.541666666664</v>
+      </c>
+      <c r="B818" s="0">
+        <v>9088.4432067883536</v>
+      </c>
+    </row>
+    <row r="819">
+      <c r="A819" s="1">
+        <v>44896.552083333336</v>
+      </c>
+      <c r="B819" s="0">
+        <v>9174.5895878953506</v>
+      </c>
+    </row>
+    <row r="820">
+      <c r="A820" s="1">
+        <v>44896.5625</v>
+      </c>
+      <c r="B820" s="0">
+        <v>7336.8001242793807</v>
+      </c>
+    </row>
+    <row r="821">
+      <c r="A821" s="1">
+        <v>44896.572916666664</v>
+      </c>
+      <c r="B821" s="0">
+        <v>8270.0525862718659</v>
+      </c>
+    </row>
+    <row r="822">
+      <c r="A822" s="1">
+        <v>44896.583333333336</v>
+      </c>
+      <c r="B822" s="0">
+        <v>6346.1167415488972</v>
+      </c>
+    </row>
+    <row r="823">
+      <c r="A823" s="1">
+        <v>44896.59375</v>
+      </c>
+      <c r="B823" s="0">
+        <v>11644.119179629311</v>
+      </c>
+    </row>
+    <row r="824">
+      <c r="A824" s="1">
+        <v>44896.604166666664</v>
+      </c>
+      <c r="B824" s="0">
+        <v>5197.4983267889156</v>
+      </c>
+    </row>
+    <row r="825">
+      <c r="A825" s="1">
+        <v>44896.614583333336</v>
+      </c>
+      <c r="B825" s="0">
+        <v>10811.370828928326</v>
+      </c>
+    </row>
+    <row r="826">
+      <c r="A826" s="1">
+        <v>44896.625</v>
+      </c>
+      <c r="B826" s="0">
+        <v>5513.3683908479115</v>
+      </c>
+    </row>
+    <row r="827">
+      <c r="A827" s="1">
+        <v>44896.635416666664</v>
+      </c>
+      <c r="B827" s="0">
+        <v>3833.5139592614378</v>
+      </c>
+    </row>
+    <row r="828">
+      <c r="A828" s="1">
+        <v>44896.645833333336</v>
+      </c>
+      <c r="B828" s="0">
+        <v>6762.4909168993909</v>
+      </c>
+    </row>
+    <row r="829">
+      <c r="A829" s="1">
+        <v>44896.65625</v>
+      </c>
+      <c r="B829" s="0">
+        <v>8399.2721579323643</v>
+      </c>
+    </row>
+    <row r="830">
+      <c r="A830" s="1">
+        <v>44896.666666666664</v>
+      </c>
+      <c r="B830" s="0">
+        <v>6475.3363132093946</v>
+      </c>
+    </row>
+    <row r="831">
+      <c r="A831" s="1">
+        <v>44896.677083333336</v>
+      </c>
+      <c r="B831" s="0">
+        <v>5757.4498039844066</v>
+      </c>
+    </row>
+    <row r="832">
+      <c r="A832" s="1">
+        <v>44896.6875</v>
+      </c>
+      <c r="B832" s="0">
+        <v>3948.3758007374363</v>
+      </c>
+    </row>
+    <row r="833">
+      <c r="A833" s="1">
+        <v>44896.697916666664</v>
+      </c>
+      <c r="B833" s="0">
+        <v>7078.360980958385</v>
+      </c>
+    </row>
+    <row r="834">
+      <c r="A834" s="1">
+        <v>44896.708333333336</v>
+      </c>
+      <c r="B834" s="0">
+        <v>8686.4267616223588</v>
+      </c>
+    </row>
+    <row r="835">
+      <c r="A835" s="1">
+        <v>44896.71875</v>
+      </c>
+      <c r="B835" s="0">
+        <v>9418.6710010318475</v>
+      </c>
+    </row>
+    <row r="836">
+      <c r="A836" s="1">
+        <v>44896.729166666664</v>
+      </c>
+      <c r="B836" s="0">
+        <v>7695.7433788918752</v>
+      </c>
+    </row>
+    <row r="837">
+      <c r="A837" s="1">
+        <v>44896.739583333336</v>
+      </c>
+      <c r="B837" s="0">
+        <v>5455.9374701099114</v>
+      </c>
+    </row>
+    <row r="838">
+      <c r="A838" s="1">
+        <v>44896.75</v>
+      </c>
+      <c r="B838" s="0">
+        <v>9763.2565254598412</v>
+      </c>
+    </row>
+    <row r="839">
+      <c r="A839" s="1">
+        <v>44896.760416666664</v>
+      </c>
+      <c r="B839" s="0">
+        <v>6374.8322019178959</v>
+      </c>
+    </row>
+    <row r="840">
+      <c r="A840" s="1">
+        <v>44896.770833333336</v>
+      </c>
+      <c r="B840" s="0">
+        <v>8054.6866335043696</v>
+      </c>
+    </row>
+    <row r="841">
+      <c r="A841" s="1">
+        <v>44896.78125</v>
+      </c>
+      <c r="B841" s="0">
+        <v>10868.801749666323</v>
+      </c>
+    </row>
+    <row r="842">
+      <c r="A842" s="1">
+        <v>44896.791666666664</v>
+      </c>
+      <c r="B842" s="0">
+        <v>6303.0435509953977</v>
+      </c>
+    </row>
+    <row r="843">
+      <c r="A843" s="1">
+        <v>44896.802083333336</v>
+      </c>
+      <c r="B843" s="0">
+        <v>9346.8823501093484</v>
+      </c>
+    </row>
+    <row r="844">
+      <c r="A844" s="1">
+        <v>44896.8125</v>
+      </c>
+      <c r="B844" s="0">
+        <v>6518.4095037628949</v>
+      </c>
+    </row>
+    <row r="845">
+      <c r="A845" s="1">
+        <v>44896.822916666664</v>
+      </c>
+      <c r="B845" s="0">
+        <v>7781.8897599988741</v>
+      </c>
+    </row>
+    <row r="846">
+      <c r="A846" s="1">
+        <v>44896.833333333336</v>
+      </c>
+      <c r="B846" s="0">
+        <v>8226.9793957183665</v>
+      </c>
+    </row>
+    <row r="847">
+      <c r="A847" s="1">
+        <v>44896.84375</v>
+      </c>
+      <c r="B847" s="0">
+        <v>8815.6463332828571</v>
+      </c>
+    </row>
+    <row r="848">
+      <c r="A848" s="1">
+        <v>44896.854166666664</v>
+      </c>
+      <c r="B848" s="0">
+        <v>6963.4991394823874</v>
+      </c>
+    </row>
+    <row r="849">
+      <c r="A849" s="1">
+        <v>44896.864583333336</v>
+      </c>
+      <c r="B849" s="0">
+        <v>5872.3116454604042</v>
+      </c>
+    </row>
+    <row r="850">
+      <c r="A850" s="1">
+        <v>44896.875</v>
+      </c>
+      <c r="B850" s="0">
+        <v>6762.4909168993909</v>
+      </c>
+    </row>
+    <row r="851">
+      <c r="A851" s="1">
+        <v>44896.885416666664</v>
+      </c>
+      <c r="B851" s="0">
+        <v>8672.0690314378589</v>
+      </c>
+    </row>
+    <row r="852">
+      <c r="A852" s="1">
+        <v>44896.895833333336</v>
+      </c>
+      <c r="B852" s="0">
+        <v>8126.4752844268687</v>
+      </c>
+    </row>
+    <row r="853">
+      <c r="A853" s="1">
+        <v>44896.90625</v>
+      </c>
+      <c r="B853" s="0">
+        <v>8758.2154125448578</v>
+      </c>
+    </row>
+    <row r="854">
+      <c r="A854" s="1">
+        <v>44896.916666666664</v>
+      </c>
+      <c r="B854" s="0">
+        <v>6102.0353284124012</v>
+      </c>
+    </row>
+    <row r="855">
+      <c r="A855" s="1">
+        <v>44896.927083333336</v>
+      </c>
+      <c r="B855" s="0">
+        <v>7178.8650922498837</v>
+      </c>
+    </row>
+    <row r="856">
+      <c r="A856" s="1">
+        <v>44896.9375</v>
+      </c>
+      <c r="B856" s="0">
+        <v>9648.3946839838445</v>
+      </c>
+    </row>
+    <row r="857">
+      <c r="A857" s="1">
+        <v>44896.947916666664</v>
+      </c>
+      <c r="B857" s="0">
+        <v>9217.6627784488501</v>
+      </c>
+    </row>
+    <row r="858">
+      <c r="A858" s="1">
+        <v>44896.958333333336</v>
+      </c>
+      <c r="B858" s="0">
+        <v>8442.3453484858637</v>
+      </c>
+    </row>
+    <row r="859">
+      <c r="A859" s="1">
+        <v>44896.96875</v>
+      </c>
+      <c r="B859" s="0">
+        <v>5226.2137871579152</v>
+      </c>
+    </row>
+    <row r="860">
+      <c r="A860" s="1">
+        <v>44896.979166666664</v>
+      </c>
+      <c r="B860" s="0">
+        <v>5412.8642795564128</v>
+      </c>
+    </row>
+    <row r="861">
+      <c r="A861" s="1">
+        <v>44896.989583333336</v>
+      </c>
+      <c r="B861" s="0">
+        <v>9174.5895878953506</v>
+      </c>
+    </row>
+    <row r="862">
+      <c r="A862" s="1">
+        <v>44897</v>
+      </c>
+      <c r="B862" s="0">
+        <v>4034.5221818444347</v>
+      </c>
+    </row>
+    <row r="863">
+      <c r="A863" s="1">
+        <v>44897.010416666664</v>
+      </c>
+      <c r="B863" s="0">
+        <v>5298.0024380804143</v>
+      </c>
+    </row>
+    <row r="864">
+      <c r="A864" s="1">
+        <v>44897.020833333336</v>
+      </c>
+      <c r="B864" s="0">
+        <v>10050.411129149838</v>
+      </c>
+    </row>
+    <row r="865">
+      <c r="A865" s="1">
+        <v>44897.03125</v>
+      </c>
+      <c r="B865" s="0">
+        <v>8040.3289033198698</v>
+      </c>
+    </row>
+    <row r="866">
+      <c r="A866" s="1">
+        <v>44897.041666666664</v>
+      </c>
+      <c r="B866" s="0">
+        <v>7035.2877904048864</v>
+      </c>
+    </row>
+    <row r="867">
+      <c r="A867" s="1">
+        <v>44897.052083333336</v>
+      </c>
+      <c r="B867" s="0">
+        <v>3259.2047518814475</v>
+      </c>
+    </row>
+    <row r="868">
+      <c r="A868" s="1">
+        <v>44897.0625</v>
+      </c>
+      <c r="B868" s="0">
+        <v>9533.5328425078442</v>
+      </c>
+    </row>
+    <row r="869">
+      <c r="A869" s="1">
+        <v>44897.072916666664</v>
+      </c>
+      <c r="B869" s="0">
+        <v>5944.1002963829033</v>
+      </c>
+    </row>
+    <row r="870">
+      <c r="A870" s="1">
+        <v>44897.083333333336</v>
+      </c>
+      <c r="B870" s="0">
+        <v>3230.4892915124474</v>
+      </c>
+    </row>
+    <row r="871">
+      <c r="A871" s="1">
+        <v>44897.09375</v>
+      </c>
+      <c r="B871" s="0">
+        <v>6862.9950281908887</v>
+      </c>
+    </row>
+    <row r="872">
+      <c r="A872" s="1">
+        <v>44897.104166666664</v>
+      </c>
+      <c r="B872" s="0">
+        <v>7150.149631880884</v>
+      </c>
+    </row>
+    <row r="873">
+      <c r="A873" s="1">
+        <v>44897.114583333336</v>
+      </c>
+      <c r="B873" s="0">
+        <v>4436.5386270104282</v>
+      </c>
+    </row>
+    <row r="874">
+      <c r="A874" s="1">
+        <v>44897.125</v>
+      </c>
+      <c r="B874" s="0">
+        <v>5872.3116454604042</v>
+      </c>
+    </row>
+    <row r="875">
+      <c r="A875" s="1">
+        <v>44897.135416666664</v>
+      </c>
+      <c r="B875" s="0">
+        <v>5125.7096758664165</v>
+      </c>
+    </row>
+    <row r="876">
+      <c r="A876" s="1">
+        <v>44897.145833333336</v>
+      </c>
+      <c r="B876" s="0">
+        <v>7265.0114733568826</v>
+      </c>
+    </row>
+    <row r="877">
+      <c r="A877" s="1">
+        <v>44897.15625</v>
+      </c>
+      <c r="B877" s="0">
+        <v>6719.4177263458905</v>
+      </c>
+    </row>
+    <row r="878">
+      <c r="A878" s="1">
+        <v>44897.166666666664</v>
+      </c>
+      <c r="B878" s="0">
+        <v>8614.6381106998615</v>
+      </c>
+    </row>
+    <row r="879">
+      <c r="A879" s="1">
+        <v>44897.177083333336</v>
+      </c>
+      <c r="B879" s="0">
+        <v>6547.1249641318936</v>
+      </c>
+    </row>
+    <row r="880">
+      <c r="A880" s="1">
+        <v>44897.1875</v>
+      </c>
+      <c r="B880" s="0">
+        <v>7221.9382828033831</v>
+      </c>
+    </row>
+    <row r="881">
+      <c r="A881" s="1">
+        <v>44897.197916666664</v>
+      </c>
+      <c r="B881" s="0">
+        <v>7652.6701883383757</v>
+      </c>
+    </row>
+    <row r="882">
+      <c r="A882" s="1">
+        <v>44897.208333333336</v>
+      </c>
+      <c r="B882" s="0">
+        <v>6015.8889473054032</v>
+      </c>
+    </row>
+    <row r="883">
+      <c r="A883" s="1">
+        <v>44897.21875</v>
+      </c>
+      <c r="B883" s="0">
+        <v>7695.7433788918752</v>
+      </c>
+    </row>
+    <row r="884">
+      <c r="A884" s="1">
+        <v>44897.229166666664</v>
+      </c>
+      <c r="B884" s="0">
+        <v>6977.8568696668863</v>
+      </c>
+    </row>
+    <row r="885">
+      <c r="A885" s="1">
+        <v>44897.239583333336</v>
+      </c>
+      <c r="B885" s="0">
+        <v>9447.3864614008471</v>
+      </c>
+    </row>
+    <row r="886">
+      <c r="A886" s="1">
+        <v>44897.25</v>
+      </c>
+      <c r="B886" s="0">
+        <v>7207.5805526188833</v>
+      </c>
+    </row>
+    <row r="887">
+      <c r="A887" s="1">
+        <v>44897.260416666664</v>
+      </c>
+      <c r="B887" s="0">
+        <v>4852.912802360921</v>
+      </c>
+    </row>
+    <row r="888">
+      <c r="A888" s="1">
+        <v>44897.270833333336</v>
+      </c>
+      <c r="B888" s="0">
+        <v>7954.1825222128709</v>
+      </c>
+    </row>
+    <row r="889">
+      <c r="A889" s="1">
+        <v>44897.28125</v>
+      </c>
+      <c r="B889" s="0">
+        <v>6446.6208528403959</v>
+      </c>
+    </row>
+    <row r="890">
+      <c r="A890" s="1">
+        <v>44897.291666666664</v>
+      </c>
+      <c r="B890" s="0">
+        <v>6317.4012811798975</v>
+      </c>
+    </row>
+    <row r="891">
+      <c r="A891" s="1">
+        <v>44897.302083333336</v>
+      </c>
+      <c r="B891" s="0">
+        <v>8585.9226503308619</v>
+      </c>
+    </row>
+    <row r="892">
+      <c r="A892" s="1">
+        <v>44897.3125</v>
+      </c>
+      <c r="B892" s="0">
+        <v>7523.4506166778783</v>
+      </c>
+    </row>
+    <row r="893">
+      <c r="A893" s="1">
+        <v>44897.322916666664</v>
+      </c>
+      <c r="B893" s="0">
+        <v>7394.23104501738</v>
+      </c>
+    </row>
+    <row r="894">
+      <c r="A894" s="1">
+        <v>44897.333333333336</v>
+      </c>
+      <c r="B894" s="0">
+        <v>5470.2952002944112</v>
+      </c>
+    </row>
+    <row r="895">
+      <c r="A895" s="1">
+        <v>44897.34375</v>
+      </c>
+      <c r="B895" s="0">
+        <v>6030.2466774899021</v>
+      </c>
+    </row>
+    <row r="896">
+      <c r="A896" s="1">
+        <v>44897.354166666664</v>
+      </c>
+      <c r="B896" s="0">
+        <v>5599.5147719549086</v>
+      </c>
+    </row>
+    <row r="897">
+      <c r="A897" s="1">
+        <v>44897.364583333336</v>
+      </c>
+      <c r="B897" s="0">
+        <v>8140.8330146113685</v>
+      </c>
+    </row>
+    <row r="898">
+      <c r="A898" s="1">
+        <v>44897.375</v>
+      </c>
+      <c r="B898" s="0">
+        <v>7336.8001242793807</v>
+      </c>
+    </row>
+    <row r="899">
+      <c r="A899" s="1">
+        <v>44897.385416666664</v>
+      </c>
+      <c r="B899" s="0">
+        <v>8284.4103164563658</v>
+      </c>
+    </row>
+    <row r="900">
+      <c r="A900" s="1">
+        <v>44897.395833333336</v>
+      </c>
+      <c r="B900" s="0">
+        <v>7265.0114733568826</v>
+      </c>
+    </row>
+    <row r="901">
+      <c r="A901" s="1">
+        <v>44897.40625</v>
+      </c>
+      <c r="B901" s="0">
+        <v>7781.8897599988741</v>
+      </c>
+    </row>
+    <row r="902">
+      <c r="A902" s="1">
+        <v>44897.416666666664</v>
+      </c>
+      <c r="B902" s="0">
+        <v>4651.9045797779254</v>
+      </c>
+    </row>
+    <row r="903">
+      <c r="A903" s="1">
+        <v>44897.427083333336</v>
+      </c>
+      <c r="B903" s="0">
+        <v>6776.8486470838907</v>
+      </c>
+    </row>
+    <row r="904">
+      <c r="A904" s="1">
+        <v>44897.4375</v>
+      </c>
+      <c r="B904" s="0">
+        <v>6360.474471733397</v>
+      </c>
+    </row>
+    <row r="905">
+      <c r="A905" s="1">
+        <v>44897.447916666664</v>
+      </c>
+      <c r="B905" s="0">
+        <v>10926.232670404323</v>
+      </c>
+    </row>
+    <row r="906">
+      <c r="A906" s="1">
+        <v>44897.458333333336</v>
+      </c>
+      <c r="B906" s="0">
+        <v>7853.6784109213722</v>
+      </c>
+    </row>
+    <row r="907">
+      <c r="A907" s="1">
+        <v>44897.46875</v>
+      </c>
+      <c r="B907" s="0">
+        <v>7035.2877904048864</v>
+      </c>
+    </row>
+    <row r="908">
+      <c r="A908" s="1">
+        <v>44897.479166666664</v>
+      </c>
+      <c r="B908" s="0">
+        <v>6446.6208528403959</v>
+      </c>
+    </row>
+    <row r="909">
+      <c r="A909" s="1">
+        <v>44897.489583333336</v>
+      </c>
+      <c r="B909" s="0">
+        <v>6547.1249641318936</v>
+      </c>
+    </row>
+    <row r="910">
+      <c r="A910" s="1">
+        <v>44897.5</v>
+      </c>
+      <c r="B910" s="0">
+        <v>3058.1965292984501</v>
+      </c>
+    </row>
+    <row r="911">
+      <c r="A911" s="1">
+        <v>44897.510416666664</v>
+      </c>
+      <c r="B911" s="0">
+        <v>6303.0435509953977</v>
+      </c>
+    </row>
+    <row r="912">
+      <c r="A912" s="1">
+        <v>44897.520833333336</v>
+      </c>
+      <c r="B912" s="0">
+        <v>7853.6784109213722</v>
+      </c>
+    </row>
+    <row r="913">
+      <c r="A913" s="1">
+        <v>44897.53125</v>
+      </c>
+      <c r="B913" s="0">
+        <v>8542.8494597773606</v>
+      </c>
+    </row>
+    <row r="914">
+      <c r="A914" s="1">
+        <v>44897.541666666664</v>
+      </c>
+      <c r="B914" s="0">
+        <v>3374.0665933574451</v>
+      </c>
+    </row>
+    <row r="915">
+      <c r="A915" s="1">
+        <v>44897.552083333336</v>
+      </c>
+      <c r="B915" s="0">
+        <v>5211.8560569734154</v>
+      </c>
+    </row>
+    <row r="916">
+      <c r="A916" s="1">
+        <v>44897.5625</v>
+      </c>
+      <c r="B916" s="0">
+        <v>5800.522994537906</v>
+      </c>
+    </row>
+    <row r="917">
+      <c r="A917" s="1">
+        <v>44897.572916666664</v>
+      </c>
+      <c r="B917" s="0">
+        <v>6489.6940433938944</v>
+      </c>
+    </row>
+    <row r="918">
+      <c r="A918" s="1">
+        <v>44897.583333333336</v>
+      </c>
+      <c r="B918" s="0">
+        <v>8054.6866335043696</v>
+      </c>
+    </row>
+    <row r="919">
+      <c r="A919" s="1">
+        <v>44897.59375</v>
+      </c>
+      <c r="B919" s="0">
+        <v>10811.370828928326</v>
+      </c>
+    </row>
+    <row r="920">
+      <c r="A920" s="1">
+        <v>44897.604166666664</v>
+      </c>
+      <c r="B920" s="0">
+        <v>10710.866717636825</v>
+      </c>
+    </row>
+    <row r="921">
+      <c r="A921" s="1">
+        <v>44897.614583333336</v>
+      </c>
+      <c r="B921" s="0">
+        <v>10294.492542286334</v>
+      </c>
+    </row>
+    <row r="922">
+      <c r="A922" s="1">
+        <v>44897.625</v>
+      </c>
+      <c r="B922" s="0">
+        <v>7595.2392676003765</v>
+      </c>
+    </row>
+    <row r="923">
+      <c r="A923" s="1">
+        <v>44897.635416666664</v>
+      </c>
+      <c r="B923" s="0">
+        <v>5298.0024380804143</v>
+      </c>
+    </row>
+    <row r="924">
+      <c r="A924" s="1">
+        <v>44897.645833333336</v>
+      </c>
+      <c r="B924" s="0">
+        <v>11371.322306123815</v>
+      </c>
+    </row>
+    <row r="925">
+      <c r="A925" s="1">
+        <v>44897.65625</v>
+      </c>
+      <c r="B925" s="0">
+        <v>6044.604407674402</v>
+      </c>
+    </row>
+    <row r="926">
+      <c r="A926" s="1">
+        <v>44897.666666666664</v>
+      </c>
+      <c r="B926" s="0">
+        <v>8284.4103164563658</v>
+      </c>
+    </row>
+    <row r="927">
+      <c r="A927" s="1">
+        <v>44897.677083333336</v>
+      </c>
+      <c r="B927" s="0">
+        <v>7824.9629505523726</v>
+      </c>
+    </row>
+    <row r="928">
+      <c r="A928" s="1">
+        <v>44897.6875</v>
+      </c>
+      <c r="B928" s="0">
+        <v>10308.850272470834</v>
+      </c>
+    </row>
+    <row r="929">
+      <c r="A929" s="1">
+        <v>44897.697916666664</v>
+      </c>
+      <c r="B929" s="0">
+        <v>9188.9473180798504</v>
+      </c>
+    </row>
+    <row r="930">
+      <c r="A930" s="1">
+        <v>44897.708333333336</v>
+      </c>
+      <c r="B930" s="0">
+        <v>5843.5961850914055</v>
+      </c>
+    </row>
+    <row r="931">
+      <c r="A931" s="1">
+        <v>44897.71875</v>
+      </c>
+      <c r="B931" s="0">
+        <v>4393.4654364569287</v>
+      </c>
+    </row>
+    <row r="932">
+      <c r="A932" s="1">
+        <v>44897.729166666664</v>
+      </c>
+      <c r="B932" s="0">
+        <v>5254.9292475269149</v>
+      </c>
+    </row>
+    <row r="933">
+      <c r="A933" s="1">
+        <v>44897.739583333336</v>
+      </c>
+      <c r="B933" s="0">
+        <v>8901.792714389856</v>
+      </c>
+    </row>
+    <row r="934">
+      <c r="A934" s="1">
+        <v>44897.75</v>
+      </c>
+      <c r="B934" s="0">
+        <v>6547.1249641318936</v>
+      </c>
+    </row>
+    <row r="935">
+      <c r="A935" s="1">
+        <v>44897.760416666664</v>
+      </c>
+      <c r="B935" s="0">
+        <v>9102.8009369728534</v>
+      </c>
+    </row>
+    <row r="936">
+      <c r="A936" s="1">
+        <v>44897.770833333336</v>
+      </c>
+      <c r="B936" s="0">
+        <v>8542.8494597773606</v>
+      </c>
+    </row>
+    <row r="937">
+      <c r="A937" s="1">
+        <v>44897.78125</v>
+      </c>
+      <c r="B937" s="0">
+        <v>8155.1907447958683</v>
+      </c>
+    </row>
+    <row r="938">
+      <c r="A938" s="1">
+        <v>44897.791666666664</v>
+      </c>
+      <c r="B938" s="0">
+        <v>6403.5476622868964</v>
+      </c>
+    </row>
+    <row r="939">
+      <c r="A939" s="1">
+        <v>44897.802083333336</v>
+      </c>
+      <c r="B939" s="0">
+        <v>6030.2466774899021</v>
+      </c>
+    </row>
+    <row r="940">
+      <c r="A940" s="1">
+        <v>44897.8125</v>
+      </c>
+      <c r="B940" s="0">
+        <v>7781.8897599988741</v>
+      </c>
+    </row>
+    <row r="941">
+      <c r="A941" s="1">
+        <v>44897.822916666664</v>
+      </c>
+      <c r="B941" s="0">
+        <v>10667.793527083328</v>
+      </c>
+    </row>
+    <row r="942">
+      <c r="A942" s="1">
+        <v>44897.833333333336</v>
+      </c>
+      <c r="B942" s="0">
+        <v>8657.7113012533591</v>
+      </c>
+    </row>
+    <row r="943">
+      <c r="A943" s="1">
+        <v>44897.84375</v>
+      </c>
+      <c r="B943" s="0">
+        <v>4034.5221818444347</v>
+      </c>
+    </row>
+    <row r="944">
+      <c r="A944" s="1">
+        <v>44897.854166666664</v>
+      </c>
+      <c r="B944" s="0">
+        <v>5226.2137871579152</v>
+      </c>
+    </row>
+    <row r="945">
+      <c r="A945" s="1">
+        <v>44897.864583333336</v>
+      </c>
+      <c r="B945" s="0">
+        <v>5542.0838512169103</v>
+      </c>
+    </row>
+    <row r="946">
+      <c r="A946" s="1">
+        <v>44897.875</v>
+      </c>
+      <c r="B946" s="0">
+        <v>6087.6775982279014</v>
+      </c>
+    </row>
+    <row r="947">
+      <c r="A947" s="1">
+        <v>44897.885416666664</v>
+      </c>
+      <c r="B947" s="0">
+        <v>5455.9374701099114</v>
+      </c>
+    </row>
+    <row r="948">
+      <c r="A948" s="1">
+        <v>44897.895833333336</v>
+      </c>
+      <c r="B948" s="0">
+        <v>6446.6208528403959</v>
+      </c>
+    </row>
+    <row r="949">
+      <c r="A949" s="1">
+        <v>44897.90625</v>
+      </c>
+      <c r="B949" s="0">
+        <v>6058.9621378589018</v>
+      </c>
+    </row>
+    <row r="950">
+      <c r="A950" s="1">
+        <v>44897.916666666664</v>
+      </c>
+      <c r="B950" s="0">
+        <v>5944.1002963829033</v>
+      </c>
+    </row>
+    <row r="951">
+      <c r="A951" s="1">
+        <v>44897.927083333336</v>
+      </c>
+      <c r="B951" s="0">
+        <v>7868.036141105873</v>
+      </c>
+    </row>
+    <row r="952">
+      <c r="A952" s="1">
+        <v>44897.9375</v>
+      </c>
+      <c r="B952" s="0">
+        <v>7078.360980958385</v>
+      </c>
+    </row>
+    <row r="953">
+      <c r="A953" s="1">
+        <v>44897.947916666664</v>
+      </c>
+      <c r="B953" s="0">
+        <v>7796.2474901833739</v>
+      </c>
+    </row>
+    <row r="954">
+      <c r="A954" s="1">
+        <v>44897.958333333336</v>
+      </c>
+      <c r="B954" s="0">
+        <v>8341.841237194365</v>
+      </c>
+    </row>
+    <row r="955">
+      <c r="A955" s="1">
+        <v>44897.96875</v>
+      </c>
+      <c r="B955" s="0">
+        <v>8069.0443636888695</v>
+      </c>
+    </row>
+    <row r="956">
+      <c r="A956" s="1">
+        <v>44897.979166666664</v>
+      </c>
+      <c r="B956" s="0">
+        <v>5398.506549371913</v>
+      </c>
+    </row>
+    <row r="957">
+      <c r="A957" s="1">
+        <v>44897.989583333336</v>
+      </c>
+      <c r="B957" s="0">
+        <v>5369.7910890029125</v>
+      </c>
+    </row>
+    <row r="958">
+      <c r="A958" s="1">
+        <v>44898</v>
+      </c>
+      <c r="B958" s="0">
+        <v>6044.604407674402</v>
+      </c>
+    </row>
+    <row r="959">
+      <c r="A959" s="1">
+        <v>44898.010416666664</v>
+      </c>
+      <c r="B959" s="0">
+        <v>6949.1414092978875</v>
+      </c>
+    </row>
+    <row r="960">
+      <c r="A960" s="1">
+        <v>44898.020833333336</v>
+      </c>
+      <c r="B960" s="0">
+        <v>10222.703891363833</v>
+      </c>
+    </row>
+    <row r="961">
+      <c r="A961" s="1">
+        <v>44898.03125</v>
+      </c>
+      <c r="B961" s="0">
+        <v>7695.7433788918752</v>
+      </c>
+    </row>
+    <row r="962">
+      <c r="A962" s="1">
+        <v>44898.041666666664</v>
+      </c>
+      <c r="B962" s="0">
+        <v>4666.2623099624243</v>
+      </c>
+    </row>
+    <row r="963">
+      <c r="A963" s="1">
+        <v>44898.052083333336</v>
+      </c>
+      <c r="B963" s="0">
+        <v>7379.8733148328811</v>
+      </c>
+    </row>
+    <row r="964">
+      <c r="A964" s="1">
+        <v>44898.0625</v>
+      </c>
+      <c r="B964" s="0">
+        <v>5628.2302323239082</v>
+      </c>
+    </row>
+    <row r="965">
+      <c r="A965" s="1">
+        <v>44898.072916666664</v>
+      </c>
+      <c r="B965" s="0">
+        <v>5053.9210249439184</v>
+      </c>
+    </row>
+    <row r="966">
+      <c r="A966" s="1">
+        <v>44898.083333333336</v>
+      </c>
+      <c r="B966" s="0">
+        <v>6690.7022659768918</v>
+      </c>
+    </row>
+    <row r="967">
+      <c r="A967" s="1">
+        <v>44898.09375</v>
+      </c>
+      <c r="B967" s="0">
+        <v>7781.8897599988741</v>
+      </c>
+    </row>
+    <row r="968">
+      <c r="A968" s="1">
+        <v>44898.104166666664</v>
+      </c>
+      <c r="B968" s="0">
+        <v>9878.1183669358397</v>
+      </c>
+    </row>
+    <row r="969">
+      <c r="A969" s="1">
+        <v>44898.114583333336</v>
+      </c>
+      <c r="B969" s="0">
+        <v>4407.8231666414285</v>
+      </c>
+    </row>
+    <row r="970">
+      <c r="A970" s="1">
+        <v>44898.125</v>
+      </c>
+      <c r="B970" s="0">
+        <v>7954.1825222128709</v>
+      </c>
+    </row>
+    <row r="971">
+      <c r="A971" s="1">
+        <v>44898.135416666664</v>
+      </c>
+      <c r="B971" s="0">
+        <v>7035.2877904048864</v>
+      </c>
+    </row>
+    <row r="972">
+      <c r="A972" s="1">
+        <v>44898.145833333336</v>
+      </c>
+      <c r="B972" s="0">
+        <v>7121.4341715118853</v>
+      </c>
+    </row>
+    <row r="973">
+      <c r="A973" s="1">
+        <v>44898.15625</v>
+      </c>
+      <c r="B973" s="0">
+        <v>8198.2639353493669</v>
+      </c>
+    </row>
+    <row r="974">
+      <c r="A974" s="1">
+        <v>44898.166666666664</v>
+      </c>
+      <c r="B974" s="0">
+        <v>6274.328090626399</v>
+      </c>
+    </row>
+    <row r="975">
+      <c r="A975" s="1">
+        <v>44898.177083333336</v>
+      </c>
+      <c r="B975" s="0">
+        <v>5613.8725021394084</v>
+      </c>
+    </row>
+    <row r="976">
+      <c r="A976" s="1">
+        <v>44898.1875</v>
+      </c>
+      <c r="B976" s="0">
+        <v>5010.847834390418</v>
+      </c>
+    </row>
+    <row r="977">
+      <c r="A977" s="1">
+        <v>44898.197916666664</v>
+      </c>
+      <c r="B977" s="0">
+        <v>6561.4826943163935</v>
+      </c>
+    </row>
+    <row r="978">
+      <c r="A978" s="1">
+        <v>44898.208333333336</v>
+      </c>
+      <c r="B978" s="0">
+        <v>8528.4917295928608</v>
+      </c>
+    </row>
+    <row r="979">
+      <c r="A979" s="1">
+        <v>44898.21875</v>
+      </c>
+      <c r="B979" s="0">
+        <v>4508.3272779329263</v>
+      </c>
+    </row>
+    <row r="980">
+      <c r="A980" s="1">
+        <v>44898.229166666664</v>
+      </c>
+      <c r="B980" s="0">
+        <v>5455.9374701099114</v>
+      </c>
+    </row>
+    <row r="981">
+      <c r="A981" s="1">
+        <v>44898.239583333336</v>
+      </c>
+      <c r="B981" s="0">
+        <v>5628.2302323239082</v>
+      </c>
+    </row>
+    <row r="982">
+      <c r="A982" s="1">
+        <v>44898.25</v>
+      </c>
+      <c r="B982" s="0">
+        <v>6949.1414092978875</v>
+      </c>
+    </row>
+    <row r="983">
+      <c r="A983" s="1">
+        <v>44898.260416666664</v>
+      </c>
+      <c r="B983" s="0">
+        <v>6949.1414092978875</v>
+      </c>
+    </row>
+    <row r="984">
+      <c r="A984" s="1">
+        <v>44898.270833333336</v>
+      </c>
+      <c r="B984" s="0">
+        <v>7092.7187111428848</v>
+      </c>
+    </row>
+    <row r="985">
+      <c r="A985" s="1">
+        <v>44898.28125</v>
+      </c>
+      <c r="B985" s="0">
+        <v>5757.4498039844066</v>
+      </c>
+    </row>
+    <row r="986">
+      <c r="A986" s="1">
+        <v>44898.291666666664</v>
+      </c>
+      <c r="B986" s="0">
+        <v>6891.7104885598883</v>
+      </c>
+    </row>
+    <row r="987">
+      <c r="A987" s="1">
+        <v>44898.302083333336</v>
+      </c>
+      <c r="B987" s="0">
+        <v>8399.2721579323643</v>
+      </c>
+    </row>
+    <row r="988">
+      <c r="A988" s="1">
+        <v>44898.3125</v>
+      </c>
+      <c r="B988" s="0">
+        <v>5556.4415814014101</v>
+      </c>
+    </row>
+    <row r="989">
+      <c r="A989" s="1">
+        <v>44898.322916666664</v>
+      </c>
+      <c r="B989" s="0">
+        <v>4738.0509608849234</v>
+      </c>
+    </row>
+    <row r="990">
+      <c r="A990" s="1">
+        <v>44898.333333333336</v>
+      </c>
+      <c r="B990" s="0">
+        <v>3431.4975140954443</v>
+      </c>
+    </row>
+    <row r="991">
+      <c r="A991" s="1">
+        <v>44898.34375</v>
+      </c>
+      <c r="B991" s="0">
+        <v>5972.8157567519029</v>
+      </c>
+    </row>
+    <row r="992">
+      <c r="A992" s="1">
+        <v>44898.354166666664</v>
+      </c>
+      <c r="B992" s="0">
+        <v>5958.4580265674031</v>
+      </c>
+    </row>
+    <row r="993">
+      <c r="A993" s="1">
+        <v>44898.364583333336</v>
+      </c>
+      <c r="B993" s="0">
+        <v>6331.7590113643973</v>
+      </c>
+    </row>
+    <row r="994">
+      <c r="A994" s="1">
+        <v>44898.375</v>
+      </c>
+      <c r="B994" s="0">
+        <v>7135.7919016963851</v>
+      </c>
+    </row>
+    <row r="995">
+      <c r="A995" s="1">
+        <v>44898.385416666664</v>
+      </c>
+      <c r="B995" s="0">
+        <v>5527.7261210324104</v>
+      </c>
+    </row>
+    <row r="996">
+      <c r="A996" s="1">
+        <v>44898.395833333336</v>
+      </c>
+      <c r="B996" s="0">
+        <v>9892.4760971203395</v>
+      </c>
+    </row>
+    <row r="997">
+      <c r="A997" s="1">
+        <v>44898.40625</v>
+      </c>
+      <c r="B997" s="0">
+        <v>5829.2384549069056</v>
+      </c>
+    </row>
+    <row r="998">
+      <c r="A998" s="1">
+        <v>44898.416666666664</v>
+      </c>
+      <c r="B998" s="0">
+        <v>5183.1405966044158</v>
+      </c>
+    </row>
+    <row r="999">
+      <c r="A999" s="1">
+        <v>44898.427083333336</v>
+      </c>
+      <c r="B999" s="0">
+        <v>8858.7195238363565</v>
+      </c>
+    </row>
+    <row r="1000">
+      <c r="A1000" s="1">
+        <v>44898.4375</v>
+      </c>
+      <c r="B1000" s="0">
+        <v>8471.0608088548615</v>
+      </c>
+    </row>
+    <row r="1001">
+      <c r="A1001" s="1">
+        <v>44898.447916666664</v>
+      </c>
+      <c r="B1001" s="0">
+        <v>7839.3206807368724</v>
       </c>
     </row>
   </sheetData>
